--- a/docs/requirements/Master Data Tables - Test Data/master-template.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="230">
   <si>
     <t>id</t>
   </si>
@@ -832,6 +832,27 @@
   </si>
   <si>
     <t>Pré-inscription</t>
+  </si>
+  <si>
+    <t>Template for email subject of Acknowledgement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Registration $PRID: Acknowledgement </t>
+  </si>
+  <si>
+    <t>Acknowledgement-email-subject</t>
+  </si>
+  <si>
+    <t>Modèle pour le sujet d'email d'accusé de réception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pré-inscription $PRID: accusé de réception </t>
+  </si>
+  <si>
+    <t>قالب للتسليم البريد الكتروني الموضوع</t>
+  </si>
+  <si>
+    <t>$PRID التسجيل المسبق: شكر</t>
   </si>
 </sst>
 </file>
@@ -1158,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89:K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1172,7 +1193,7 @@
     <col min="6" max="6" width="89" customWidth="1"/>
     <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -4522,6 +4543,120 @@
         <v>184</v>
       </c>
     </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>1188</v>
+      </c>
+      <c r="B89" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>224</v>
+      </c>
+      <c r="G89">
+        <v>10001</v>
+      </c>
+      <c r="H89" t="s">
+        <v>215</v>
+      </c>
+      <c r="I89" t="s">
+        <v>225</v>
+      </c>
+      <c r="J89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>183</v>
+      </c>
+      <c r="M89" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>1189</v>
+      </c>
+      <c r="B90" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" t="s">
+        <v>226</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>227</v>
+      </c>
+      <c r="G90">
+        <v>10002</v>
+      </c>
+      <c r="H90" t="s">
+        <v>222</v>
+      </c>
+      <c r="I90" t="s">
+        <v>225</v>
+      </c>
+      <c r="J90" t="s">
+        <v>20</v>
+      </c>
+      <c r="K90" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>183</v>
+      </c>
+      <c r="M90" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>1190</v>
+      </c>
+      <c r="B91" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>229</v>
+      </c>
+      <c r="G91">
+        <v>10013</v>
+      </c>
+      <c r="H91" t="s">
+        <v>221</v>
+      </c>
+      <c r="I91" t="s">
+        <v>225</v>
+      </c>
+      <c r="J91" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>183</v>
+      </c>
+      <c r="M91" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-template.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-template.xlsx
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89:K91"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1254,7 +1254,7 @@
         <v>43</v>
       </c>
       <c r="G2">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="H2" t="s">
         <v>211</v>
@@ -1292,7 +1292,7 @@
         <v>46</v>
       </c>
       <c r="G3">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="H3" t="s">
         <v>211</v>
@@ -1330,7 +1330,7 @@
         <v>44</v>
       </c>
       <c r="G4">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="H4" t="s">
         <v>211</v>
@@ -1368,7 +1368,7 @@
         <v>45</v>
       </c>
       <c r="G5">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="H5" t="s">
         <v>211</v>
@@ -1406,7 +1406,7 @@
         <v>41</v>
       </c>
       <c r="G6">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="H6" t="s">
         <v>211</v>
@@ -1444,7 +1444,7 @@
         <v>40</v>
       </c>
       <c r="G7">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="H7" t="s">
         <v>211</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -1482,7 +1482,7 @@
         <v>42</v>
       </c>
       <c r="G8">
-        <v>10008</v>
+        <v>10004</v>
       </c>
       <c r="H8" t="s">
         <v>213</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -1520,7 +1520,7 @@
         <v>39</v>
       </c>
       <c r="G9">
-        <v>10008</v>
+        <v>10004</v>
       </c>
       <c r="H9" t="s">
         <v>213</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -1558,7 +1558,7 @@
         <v>85</v>
       </c>
       <c r="G10">
-        <v>10008</v>
+        <v>10004</v>
       </c>
       <c r="H10" t="s">
         <v>213</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -1596,7 +1596,7 @@
         <v>86</v>
       </c>
       <c r="G11">
-        <v>10008</v>
+        <v>10004</v>
       </c>
       <c r="H11" t="s">
         <v>213</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -1634,7 +1634,7 @@
         <v>41</v>
       </c>
       <c r="G12">
-        <v>10008</v>
+        <v>10004</v>
       </c>
       <c r="H12" t="s">
         <v>213</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -1672,7 +1672,7 @@
         <v>42</v>
       </c>
       <c r="G13">
-        <v>10008</v>
+        <v>10004</v>
       </c>
       <c r="H13" t="s">
         <v>213</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="14" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -1710,7 +1710,7 @@
         <v>47</v>
       </c>
       <c r="G14">
-        <v>10016</v>
+        <v>10004</v>
       </c>
       <c r="H14" t="s">
         <v>217</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -1748,7 +1748,7 @@
         <v>48</v>
       </c>
       <c r="G15">
-        <v>10016</v>
+        <v>10004</v>
       </c>
       <c r="H15" t="s">
         <v>217</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="16" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -1786,7 +1786,7 @@
         <v>49</v>
       </c>
       <c r="G16">
-        <v>10016</v>
+        <v>10004</v>
       </c>
       <c r="H16" t="s">
         <v>217</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="17" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -1824,7 +1824,7 @@
         <v>50</v>
       </c>
       <c r="G17">
-        <v>10016</v>
+        <v>10004</v>
       </c>
       <c r="H17" t="s">
         <v>217</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -1862,7 +1862,7 @@
         <v>51</v>
       </c>
       <c r="G18">
-        <v>10016</v>
+        <v>10004</v>
       </c>
       <c r="H18" t="s">
         <v>217</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -1900,7 +1900,7 @@
         <v>52</v>
       </c>
       <c r="G19">
-        <v>10016</v>
+        <v>10004</v>
       </c>
       <c r="H19" t="s">
         <v>217</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="20" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
@@ -1938,7 +1938,7 @@
         <v>185</v>
       </c>
       <c r="G20">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="H20" t="s">
         <v>212</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="21" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -1976,7 +1976,7 @@
         <v>186</v>
       </c>
       <c r="G21">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="H21" t="s">
         <v>212</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="22" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
@@ -2014,7 +2014,7 @@
         <v>187</v>
       </c>
       <c r="G22">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="H22" t="s">
         <v>212</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="23" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
@@ -2052,7 +2052,7 @@
         <v>188</v>
       </c>
       <c r="G23">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="H23" t="s">
         <v>212</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="24" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
@@ -2090,7 +2090,7 @@
         <v>189</v>
       </c>
       <c r="G24">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="H24" t="s">
         <v>212</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="25" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
@@ -2128,7 +2128,7 @@
         <v>190</v>
       </c>
       <c r="G25">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="H25" t="s">
         <v>212</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="26" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="B26" t="s">
         <v>67</v>
@@ -2166,7 +2166,7 @@
         <v>191</v>
       </c>
       <c r="G26">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="H26" t="s">
         <v>212</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="27" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B27" t="s">
         <v>68</v>
@@ -2204,7 +2204,7 @@
         <v>192</v>
       </c>
       <c r="G27">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="H27" t="s">
         <v>212</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="28" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>1127</v>
+        <v>1107</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
@@ -2242,7 +2242,7 @@
         <v>193</v>
       </c>
       <c r="G28">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="H28" t="s">
         <v>216</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="29" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>1128</v>
+        <v>1108</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -2280,7 +2280,7 @@
         <v>194</v>
       </c>
       <c r="G29">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="H29" t="s">
         <v>216</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="30" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>1129</v>
+        <v>1109</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
@@ -2318,7 +2318,7 @@
         <v>195</v>
       </c>
       <c r="G30">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="H30" t="s">
         <v>216</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="31" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>1130</v>
+        <v>1110</v>
       </c>
       <c r="B31" t="s">
         <v>72</v>
@@ -2356,7 +2356,7 @@
         <v>196</v>
       </c>
       <c r="G31">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="H31" t="s">
         <v>216</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="32" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>1131</v>
+        <v>1111</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
@@ -2394,7 +2394,7 @@
         <v>197</v>
       </c>
       <c r="G32">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="H32" t="s">
         <v>216</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="33" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>1132</v>
+        <v>1112</v>
       </c>
       <c r="B33" t="s">
         <v>74</v>
@@ -2432,7 +2432,7 @@
         <v>198</v>
       </c>
       <c r="G33">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="H33" t="s">
         <v>216</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="34" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>1133</v>
+        <v>1113</v>
       </c>
       <c r="B34" t="s">
         <v>75</v>
@@ -2470,7 +2470,7 @@
         <v>199</v>
       </c>
       <c r="G34">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="H34" t="s">
         <v>216</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="35" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>1134</v>
+        <v>1114</v>
       </c>
       <c r="B35" t="s">
         <v>76</v>
@@ -2508,7 +2508,7 @@
         <v>200</v>
       </c>
       <c r="G35">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="H35" t="s">
         <v>216</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="36" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>1135</v>
+        <v>1107</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -2546,7 +2546,7 @@
         <v>201</v>
       </c>
       <c r="G36">
-        <v>10015</v>
+        <v>10003</v>
       </c>
       <c r="H36" t="s">
         <v>218</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="37" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>1136</v>
+        <v>1108</v>
       </c>
       <c r="B37" t="s">
         <v>78</v>
@@ -2584,7 +2584,7 @@
         <v>202</v>
       </c>
       <c r="G37">
-        <v>10015</v>
+        <v>10003</v>
       </c>
       <c r="H37" t="s">
         <v>218</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="38" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>1137</v>
+        <v>1109</v>
       </c>
       <c r="B38" t="s">
         <v>79</v>
@@ -2622,7 +2622,7 @@
         <v>203</v>
       </c>
       <c r="G38">
-        <v>10015</v>
+        <v>10003</v>
       </c>
       <c r="H38" t="s">
         <v>218</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="39" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>1138</v>
+        <v>1110</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
@@ -2660,7 +2660,7 @@
         <v>204</v>
       </c>
       <c r="G39">
-        <v>10015</v>
+        <v>10003</v>
       </c>
       <c r="H39" t="s">
         <v>218</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="40" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>1139</v>
+        <v>1111</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
@@ -2698,7 +2698,7 @@
         <v>205</v>
       </c>
       <c r="G40">
-        <v>10015</v>
+        <v>10003</v>
       </c>
       <c r="H40" t="s">
         <v>218</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="41" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>1140</v>
+        <v>1112</v>
       </c>
       <c r="B41" t="s">
         <v>82</v>
@@ -2736,7 +2736,7 @@
         <v>206</v>
       </c>
       <c r="G41">
-        <v>10015</v>
+        <v>10003</v>
       </c>
       <c r="H41" t="s">
         <v>218</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="42" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>1141</v>
+        <v>1113</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
@@ -2774,7 +2774,7 @@
         <v>207</v>
       </c>
       <c r="G42">
-        <v>10015</v>
+        <v>10003</v>
       </c>
       <c r="H42" t="s">
         <v>218</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="43" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>1142</v>
+        <v>1114</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
@@ -2812,7 +2812,7 @@
         <v>208</v>
       </c>
       <c r="G43">
-        <v>10015</v>
+        <v>10003</v>
       </c>
       <c r="H43" t="s">
         <v>218</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="44" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>1143</v>
+        <v>1115</v>
       </c>
       <c r="B44" t="s">
         <v>96</v>
@@ -2850,7 +2850,7 @@
         <v>129</v>
       </c>
       <c r="G44">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H44" t="s">
         <v>214</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>1144</v>
+        <v>1116</v>
       </c>
       <c r="B45" t="s">
         <v>97</v>
@@ -2888,7 +2888,7 @@
         <v>130</v>
       </c>
       <c r="G45">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H45" t="s">
         <v>214</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="46" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>1145</v>
+        <v>1117</v>
       </c>
       <c r="B46" t="s">
         <v>98</v>
@@ -2926,7 +2926,7 @@
         <v>131</v>
       </c>
       <c r="G46">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H46" t="s">
         <v>214</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="47" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>1146</v>
+        <v>1118</v>
       </c>
       <c r="B47" t="s">
         <v>99</v>
@@ -2964,7 +2964,7 @@
         <v>132</v>
       </c>
       <c r="G47">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H47" t="s">
         <v>214</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>1147</v>
+        <v>1119</v>
       </c>
       <c r="B48" t="s">
         <v>100</v>
@@ -3002,7 +3002,7 @@
         <v>133</v>
       </c>
       <c r="G48">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H48" t="s">
         <v>214</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="49" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>1148</v>
+        <v>1120</v>
       </c>
       <c r="B49" t="s">
         <v>101</v>
@@ -3040,7 +3040,7 @@
         <v>132</v>
       </c>
       <c r="G49">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H49" t="s">
         <v>214</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="50" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>1149</v>
+        <v>1121</v>
       </c>
       <c r="B50" t="s">
         <v>102</v>
@@ -3078,7 +3078,7 @@
         <v>134</v>
       </c>
       <c r="G50">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H50" t="s">
         <v>214</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>1150</v>
+        <v>1122</v>
       </c>
       <c r="B51" t="s">
         <v>103</v>
@@ -3116,7 +3116,7 @@
         <v>135</v>
       </c>
       <c r="G51">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H51" t="s">
         <v>214</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="52" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>1151</v>
+        <v>1123</v>
       </c>
       <c r="B52" t="s">
         <v>104</v>
@@ -3154,7 +3154,7 @@
         <v>134</v>
       </c>
       <c r="G52">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H52" t="s">
         <v>214</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="53" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>1152</v>
+        <v>1115</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
@@ -3192,7 +3192,7 @@
         <v>123</v>
       </c>
       <c r="G53">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="H53" t="s">
         <v>219</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>1153</v>
+        <v>1116</v>
       </c>
       <c r="B54" t="s">
         <v>106</v>
@@ -3230,7 +3230,7 @@
         <v>124</v>
       </c>
       <c r="G54">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="H54" t="s">
         <v>219</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="55" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>1154</v>
+        <v>1117</v>
       </c>
       <c r="B55" t="s">
         <v>107</v>
@@ -3268,7 +3268,7 @@
         <v>123</v>
       </c>
       <c r="G55">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="H55" t="s">
         <v>219</v>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="56" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>1155</v>
+        <v>1118</v>
       </c>
       <c r="B56" t="s">
         <v>108</v>
@@ -3306,7 +3306,7 @@
         <v>125</v>
       </c>
       <c r="G56">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="H56" t="s">
         <v>219</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>1156</v>
+        <v>1119</v>
       </c>
       <c r="B57" t="s">
         <v>109</v>
@@ -3344,7 +3344,7 @@
         <v>126</v>
       </c>
       <c r="G57">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="H57" t="s">
         <v>219</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="58" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>1157</v>
+        <v>1120</v>
       </c>
       <c r="B58" t="s">
         <v>110</v>
@@ -3382,7 +3382,7 @@
         <v>125</v>
       </c>
       <c r="G58">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="H58" t="s">
         <v>219</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="59" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>1158</v>
+        <v>1121</v>
       </c>
       <c r="B59" t="s">
         <v>111</v>
@@ -3420,7 +3420,7 @@
         <v>127</v>
       </c>
       <c r="G59">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="H59" t="s">
         <v>219</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>1159</v>
+        <v>1122</v>
       </c>
       <c r="B60" t="s">
         <v>112</v>
@@ -3458,7 +3458,7 @@
         <v>128</v>
       </c>
       <c r="G60">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="H60" t="s">
         <v>219</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="61" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>1160</v>
+        <v>1123</v>
       </c>
       <c r="B61" t="s">
         <v>113</v>
@@ -3496,7 +3496,7 @@
         <v>136</v>
       </c>
       <c r="G61">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="H61" t="s">
         <v>219</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="62" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>1161</v>
+        <v>1115</v>
       </c>
       <c r="B62" t="s">
         <v>114</v>
@@ -3534,7 +3534,7 @@
         <v>137</v>
       </c>
       <c r="G62">
-        <v>10014</v>
+        <v>10002</v>
       </c>
       <c r="H62" t="s">
         <v>220</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>1162</v>
+        <v>1116</v>
       </c>
       <c r="B63" t="s">
         <v>115</v>
@@ -3572,7 +3572,7 @@
         <v>138</v>
       </c>
       <c r="G63">
-        <v>10014</v>
+        <v>10002</v>
       </c>
       <c r="H63" t="s">
         <v>220</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="64" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>1163</v>
+        <v>1117</v>
       </c>
       <c r="B64" t="s">
         <v>116</v>
@@ -3610,7 +3610,7 @@
         <v>137</v>
       </c>
       <c r="G64">
-        <v>10014</v>
+        <v>10002</v>
       </c>
       <c r="H64" t="s">
         <v>220</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="65" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>1164</v>
+        <v>1118</v>
       </c>
       <c r="B65" t="s">
         <v>117</v>
@@ -3648,7 +3648,7 @@
         <v>139</v>
       </c>
       <c r="G65">
-        <v>10014</v>
+        <v>10002</v>
       </c>
       <c r="H65" t="s">
         <v>220</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>1165</v>
+        <v>1119</v>
       </c>
       <c r="B66" t="s">
         <v>118</v>
@@ -3686,7 +3686,7 @@
         <v>140</v>
       </c>
       <c r="G66">
-        <v>10014</v>
+        <v>10002</v>
       </c>
       <c r="H66" t="s">
         <v>220</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="67" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>1166</v>
+        <v>1120</v>
       </c>
       <c r="B67" t="s">
         <v>119</v>
@@ -3724,7 +3724,7 @@
         <v>139</v>
       </c>
       <c r="G67">
-        <v>10014</v>
+        <v>10002</v>
       </c>
       <c r="H67" t="s">
         <v>220</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="68" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>1167</v>
+        <v>1121</v>
       </c>
       <c r="B68" t="s">
         <v>120</v>
@@ -3762,7 +3762,7 @@
         <v>141</v>
       </c>
       <c r="G68">
-        <v>10014</v>
+        <v>10002</v>
       </c>
       <c r="H68" t="s">
         <v>220</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>1168</v>
+        <v>1122</v>
       </c>
       <c r="B69" t="s">
         <v>121</v>
@@ -3800,7 +3800,7 @@
         <v>142</v>
       </c>
       <c r="G69">
-        <v>10014</v>
+        <v>10002</v>
       </c>
       <c r="H69" t="s">
         <v>220</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="70" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>1169</v>
+        <v>1123</v>
       </c>
       <c r="B70" t="s">
         <v>122</v>
@@ -3838,7 +3838,7 @@
         <v>143</v>
       </c>
       <c r="G70">
-        <v>10014</v>
+        <v>10002</v>
       </c>
       <c r="H70" t="s">
         <v>220</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="71" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>1170</v>
+        <v>1124</v>
       </c>
       <c r="B71" t="s">
         <v>150</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="72" spans="1:13" ht="261" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>1171</v>
+        <v>1125</v>
       </c>
       <c r="B72" t="s">
         <v>151</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="73" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>1172</v>
+        <v>1126</v>
       </c>
       <c r="B73" t="s">
         <v>152</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>1173</v>
+        <v>1127</v>
       </c>
       <c r="B74" t="s">
         <v>153</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="75" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>1174</v>
+        <v>1128</v>
       </c>
       <c r="B75" t="s">
         <v>101</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="76" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>1175</v>
+        <v>1129</v>
       </c>
       <c r="B76" t="s">
         <v>154</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="77" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>1176</v>
+        <v>1124</v>
       </c>
       <c r="B77" t="s">
         <v>155</v>
@@ -4104,7 +4104,7 @@
         <v>178</v>
       </c>
       <c r="G77">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H77" t="s">
         <v>221</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="78" spans="1:13" ht="261" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>1177</v>
+        <v>1125</v>
       </c>
       <c r="B78" t="s">
         <v>156</v>
@@ -4142,7 +4142,7 @@
         <v>179</v>
       </c>
       <c r="G78">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H78" t="s">
         <v>221</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="79" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>1178</v>
+        <v>1126</v>
       </c>
       <c r="B79" t="s">
         <v>157</v>
@@ -4180,7 +4180,7 @@
         <v>180</v>
       </c>
       <c r="G79">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H79" t="s">
         <v>221</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>1179</v>
+        <v>1127</v>
       </c>
       <c r="B80" t="s">
         <v>158</v>
@@ -4218,7 +4218,7 @@
         <v>169</v>
       </c>
       <c r="G80">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H80" t="s">
         <v>221</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>1180</v>
+        <v>1128</v>
       </c>
       <c r="B81" t="s">
         <v>159</v>
@@ -4256,7 +4256,7 @@
         <v>181</v>
       </c>
       <c r="G81">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H81" t="s">
         <v>221</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="82" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>1181</v>
+        <v>1129</v>
       </c>
       <c r="B82" t="s">
         <v>160</v>
@@ -4294,7 +4294,7 @@
         <v>182</v>
       </c>
       <c r="G82">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H82" t="s">
         <v>221</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="83" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>1182</v>
+        <v>1124</v>
       </c>
       <c r="B83" t="s">
         <v>161</v>
@@ -4332,7 +4332,7 @@
         <v>172</v>
       </c>
       <c r="G83">
-        <v>10013</v>
+        <v>10001</v>
       </c>
       <c r="H83" t="s">
         <v>222</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="84" spans="1:13" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>1183</v>
+        <v>1125</v>
       </c>
       <c r="B84" t="s">
         <v>162</v>
@@ -4370,7 +4370,7 @@
         <v>173</v>
       </c>
       <c r="G84">
-        <v>10013</v>
+        <v>10001</v>
       </c>
       <c r="H84" t="s">
         <v>222</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="85" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>1184</v>
+        <v>1126</v>
       </c>
       <c r="B85" t="s">
         <v>163</v>
@@ -4408,7 +4408,7 @@
         <v>174</v>
       </c>
       <c r="G85">
-        <v>10013</v>
+        <v>10001</v>
       </c>
       <c r="H85" t="s">
         <v>222</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>1185</v>
+        <v>1127</v>
       </c>
       <c r="B86" t="s">
         <v>164</v>
@@ -4446,7 +4446,7 @@
         <v>175</v>
       </c>
       <c r="G86">
-        <v>10013</v>
+        <v>10001</v>
       </c>
       <c r="H86" t="s">
         <v>222</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="87" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>1186</v>
+        <v>1128</v>
       </c>
       <c r="B87" t="s">
         <v>101</v>
@@ -4484,7 +4484,7 @@
         <v>176</v>
       </c>
       <c r="G87">
-        <v>10013</v>
+        <v>10001</v>
       </c>
       <c r="H87" t="s">
         <v>222</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="88" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>1187</v>
+        <v>1129</v>
       </c>
       <c r="B88" t="s">
         <v>165</v>
@@ -4522,7 +4522,7 @@
         <v>177</v>
       </c>
       <c r="G88">
-        <v>10013</v>
+        <v>10001</v>
       </c>
       <c r="H88" t="s">
         <v>222</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>1188</v>
+        <v>1130</v>
       </c>
       <c r="B89" t="s">
         <v>223</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>1189</v>
+        <v>1130</v>
       </c>
       <c r="B90" t="s">
         <v>226</v>
@@ -4598,7 +4598,7 @@
         <v>227</v>
       </c>
       <c r="G90">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H90" t="s">
         <v>222</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>1190</v>
+        <v>1130</v>
       </c>
       <c r="B91" t="s">
         <v>228</v>
@@ -4636,7 +4636,7 @@
         <v>229</v>
       </c>
       <c r="G91">
-        <v>10013</v>
+        <v>10001</v>
       </c>
       <c r="H91" t="s">
         <v>221</v>

--- a/docs/requirements/Master Data Tables - Test Data/master-template.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B1D5D3D-F746-49F0-B2A2-302B60D30FD4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{46416F6F-D978-41B4-B8BF-BBFB648AD511}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="master-template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'master-template'!$A$1:$M$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'master-template'!$A$1:$M$125</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="313">
   <si>
     <t>id</t>
   </si>
@@ -150,20 +150,10 @@
     <t>قالب لموضوع التخويل</t>
   </si>
   <si>
-    <t>UIN $uin: Authentication $status</t>
-  </si>
-  <si>
     <t>قالب لرسالة التفويض</t>
   </si>
   <si>
-    <t>لديك مصادقة UIN $uin باستخدام authType$ على date$ في time Hs $status$ في جهاز تم نشره بواسطة "خدمات MOSIP".</t>
-  </si>
-  <si>
     <t>قالب لمحتوى البريد الإلكتروني</t>
-  </si>
-  <si>
-    <t>$name
-OTP لـ UIN $uin هو $otp وهو صالح لمدة $validTime دقيقة. (التي تم إنشاؤها على $date في $time ساعات)</t>
   </si>
   <si>
     <t>قالب لموضوع البريد الإلكتروني</t>
@@ -1283,7 +1273,54 @@
 </t>
   </si>
   <si>
-    <t>&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:540px;}.applicantPhoto{position:absolute;top:-35px;left:670px;}.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:690px;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}td,p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:158px;}.irisWithoutException{top:-15px;left:120px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:98px;}.leftRing{top:3px;left:111px;}.leftMiddle{top:-7px;left:127px;}.leftIndex{top:3px;left:140px;}.rightIndex{top:3px;left:113px;}.rightMiddle{top:-7px;left:127px;}.rightRing{top:3px;left:140px;}.rightLittle{top:15px;left:154px;}.leftThumb{top:-4px;left:113px;}.rightThumb{top:-4px;left:138px;}li span{color:black;font-size:12px;}li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}&lt;/style&gt;&lt;/head&gt;&lt;body&gt;&lt;div class="section"&gt;&lt;div class="form"&gt;&lt;table ${AckReceipt} class="${headerTable}"&gt;&lt;tr&gt;&lt;td class="bottom"&gt;&lt;img src="${QRCodeSource}" width="370" height="370"/&gt;&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${RIDPrimLabel} / ${RIDSecLabel}&lt;/p&gt;&lt;br/&gt;${RID}&lt;/td&gt;&lt;td ${UINUpdate} class="bottom"&gt;&lt;p class="headings"&gt;${UINPrimLabel} / ${UINSecLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table ${Preview} class="headerTable"&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${PreRegIDPrimLabel} / ${PreRegIDSecLabel}&lt;/p&gt;&lt;br/&gt;${PreRegID}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;br/&gt;&lt;hr/&gt;&lt;p class="head"&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;div ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyDemographicInfo"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr/&gt;&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${FullNamePrimLabel} / ${FullNameSecLabel}&lt;/p&gt;&lt;br/&gt;${FullName}&lt;br/&gt;${FullNameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${GenderPrimLabel} / ${GenderSecLabel}&lt;/p&gt;&lt;br/&gt;${Gender}&lt;br/&gt;${GenderSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${DOBPrimLabel} / ${DOBSecLabel}&lt;/p&gt;&lt;br/&gt;${DOB}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AgePrimLabel} / ${AgeSecLabel}&lt;/p&gt;&lt;br/&gt;${Age} ${YearsPrim} / ${YearsSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ForiegnerPrimLabel} / ${ForiegnerSecLabel}&lt;/p&gt;&lt;br/&gt;${ResidenceStatus}&lt;br/&gt;${ResidenceStatusSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine1PrimLabel} / ${AddressLine1SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine1}&lt;br/&gt;${AddressLine1Sec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine2PrimLabel} / ${AddressLine2SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine2}&lt;br/&gt;${AddressLine2Sec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegionPrimLabel} / ${RegionSecLabel}&lt;/p&gt;&lt;br/&gt;${Region}&lt;br/&gt;${RegionSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ProvincePrimLabel} / ${ProvinceSecLabel}&lt;/p&gt;&lt;br/&gt;${Province}&lt;br/&gt;${ProvinceSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${LocalAuthorityPrimLabel} / ${LocalAuthoritySecLabel}&lt;/p&gt;&lt;br/&gt;${LocalAuthority}&lt;br/&gt;${LocalAuthoritySec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${MobilePrimLabel} / ${MobileSecLabel}&lt;/p&gt;&lt;br/&gt;${Mobile}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${PostalCodePrimLabel} / ${PostalCodeSecLabel}&lt;/p&gt;&lt;br/&gt;${PostalCode}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${EmailPrimLabel} / ${EmailSecLabel}&lt;/p&gt;&lt;br/&gt;${Email}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${CNIEPrimLabel} / ${CNIESecLabel}&lt;/p&gt;&lt;br/&gt;${CNIE}&lt;/td&gt;&lt;/tr&gt;&lt;tr ${WithParent}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ParentNamePrimLabel} / ${ParentNameSecLabel}&lt;/p&gt;&lt;br/&gt;${ParentName}&lt;br/&gt;${ParentNameSec}&lt;/td&gt;</t>
+    <t>preregistration</t>
+  </si>
+  <si>
+    <t>otp service</t>
+  </si>
+  <si>
+    <t>OTP Send Service</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Please find the OTP $otp</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eng </t>
+  </si>
+  <si>
+    <t>ida</t>
+  </si>
+  <si>
+    <t>registrationprocessor</t>
+  </si>
+  <si>
+    <t>registrationclient</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:540px;}.applicantPhoto{position:absolute;top:-35px;left:670px;}.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:690px;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}td,p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:158px;}.irisWithoutException{top:-15px;left:120px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:98px;}.leftRing{top:3px;left:111px;}.leftMiddle{top:-7px;left:127px;}.leftIndex{top:3px;left:140px;}.rightIndex{top:3px;left:113px;}.rightMiddle{top:-7px;left:127px;}.rightRing{top:3px;left:140px;}.rightLittle{top:15px;left:154px;}.leftThumb{top:-4px;left:113px;}.rightThumb{top:-4px;left:138px;}li span{color:black;font-size:12px;}li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}&lt;/style&gt;&lt;/head&gt;&lt;body&gt;&lt;div class="section"&gt;&lt;div class="form"&gt;&lt;table ${AckReceipt} class="${headerTable}"&gt;&lt;tr&gt;&lt;td class="bottom"&gt;&lt;img src="${QRCodeSource}" width="270" height="270"/&gt;&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${RIDPrimLabel} / ${RIDSecLabel}&lt;/p&gt;&lt;br/&gt;${RID}&lt;/td&gt;&lt;td ${UINUpdate} class="bottom"&gt;&lt;p class="headings"&gt;${UINPrimLabel} / ${UINSecLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table ${Preview} class="headerTable"&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${PreRegIDPrimLabel} / ${PreRegIDSecLabel}&lt;/p&gt;&lt;br/&gt;${PreRegID}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;br/&gt;&lt;hr/&gt;&lt;p class="head"&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;div ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyDemographicInfo"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr/&gt;&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${FullNamePrimLabel} / ${FullNameSecLabel}&lt;/p&gt;&lt;br/&gt;${FullName}&lt;br/&gt;${FullNameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${GenderPrimLabel} / ${GenderSecLabel}&lt;/p&gt;&lt;br/&gt;${Gender}&lt;br/&gt;${GenderSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${DOBPrimLabel} / ${DOBSecLabel}&lt;/p&gt;&lt;br/&gt;${DOB}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AgePrimLabel} / ${AgeSecLabel}&lt;/p&gt;&lt;br/&gt;${Age} ${YearsPrim} / ${YearsSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ForiegnerPrimLabel} / ${ForiegnerSecLabel}&lt;/p&gt;&lt;br/&gt;${ResidenceStatus}&lt;br/&gt;${ResidenceStatusSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine1PrimLabel} / ${AddressLine1SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine1}&lt;br/&gt;${AddressLine1Sec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine2PrimLabel} / ${AddressLine2SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine2}&lt;br/&gt;${AddressLine2Sec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegionPrimLabel} / ${RegionSecLabel}&lt;/p&gt;&lt;br/&gt;${Region}&lt;br/&gt;${RegionSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ProvincePrimLabel} / ${ProvinceSecLabel}&lt;/p&gt;&lt;br/&gt;${Province}&lt;br/&gt;${ProvinceSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${LocalAuthorityPrimLabel} / ${LocalAuthoritySecLabel}&lt;/p&gt;&lt;br/&gt;${LocalAuthority}&lt;br/&gt;${LocalAuthoritySec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${MobilePrimLabel} / ${MobileSecLabel}&lt;/p&gt;&lt;br/&gt;${Mobile}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${PostalCodePrimLabel} / ${PostalCodeSecLabel}&lt;/p&gt;&lt;br/&gt;${PostalCode}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${EmailPrimLabel} / ${EmailSecLabel}&lt;/p&gt;&lt;br/&gt;${Email}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${CNIEPrimLabel} / ${CNIESecLabel}&lt;/p&gt;&lt;br/&gt;${CNIE}&lt;/td&gt;&lt;/tr&gt;&lt;tr ${WithParent}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ParentNamePrimLabel} / ${ParentNameSecLabel}&lt;/p&gt;&lt;br/&gt;${ParentName}&lt;br/&gt;${ParentNameSec}&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>عزيزي $name ،
+تقوم مصادقة UIN باستخدام $authType بتعيينها على $time Hours $status على جهاز تم نشره بواسطة "خدمات MOSIP".</t>
+  </si>
+  <si>
+    <t>UIN $uin: مصادقة $status</t>
+  </si>
+  <si>
+    <t>مصادقة UIN باستخدام $authType هي $date إلى $time hours $status على جهاز تم نشره بواسطة "خدمات MOSIP".</t>
+  </si>
+  <si>
+    <t>عزيزي $name ،
+OTP لـ UIN $uin هو $otp وهو صالح لمدة $validTime دقيقة. (التي تم إنشاؤها على $date في $time ساعات)</t>
+  </si>
+  <si>
+    <t>UIN $uin: طلب OTP</t>
   </si>
 </sst>
 </file>
@@ -1782,11 +1819,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2143,19 +2183,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD1048576"/>
+      <selection activeCell="A126" sqref="A126:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="55.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="55.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="36" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -2212,7 +2255,6 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2251,7 +2293,6 @@
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2290,7 +2331,6 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,7 +2369,6 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
@@ -2368,7 +2407,6 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2407,7 +2445,6 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
@@ -2433,7 +2470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1101</v>
       </c>
@@ -2446,9 +2483,8 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
+      <c r="F8" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="G8" s="1">
         <v>10004</v>
@@ -2485,9 +2521,8 @@
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="G9" s="1">
         <v>10004</v>
@@ -2516,17 +2551,16 @@
         <v>1103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="G10" s="1">
         <v>10004</v>
@@ -2550,22 +2584,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1104</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
+      <c r="F11" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="G11" s="1">
         <v>10004</v>
@@ -2594,17 +2627,16 @@
         <v>1105</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>312</v>
       </c>
       <c r="G12" s="1">
         <v>10004</v>
@@ -2633,15 +2665,14 @@
         <v>1106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
@@ -2672,29 +2703,28 @@
         <v>1101</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1">
         <v>10004</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K14" s="1" t="b">
         <v>1</v>
@@ -2711,29 +2741,28 @@
         <v>1102</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1">
         <v>10004</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K15" s="1" t="b">
         <v>1</v>
@@ -2750,29 +2779,28 @@
         <v>1103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1">
         <v>10004</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K16" s="1" t="b">
         <v>1</v>
@@ -2789,29 +2817,28 @@
         <v>1104</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1">
         <v>10004</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K17" s="1" t="b">
         <v>1</v>
@@ -2828,29 +2855,28 @@
         <v>1105</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1">
         <v>10004</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K18" s="1" t="b">
         <v>1</v>
@@ -2867,29 +2893,28 @@
         <v>1106</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G19" s="1">
         <v>10004</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K19" s="1" t="b">
         <v>1</v>
@@ -2906,26 +2931,25 @@
         <v>1107</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G20" s="1">
         <v>10003</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>18</v>
@@ -2945,26 +2969,25 @@
         <v>1108</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G21" s="1">
         <v>10003</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>18</v>
@@ -2984,26 +3007,25 @@
         <v>1109</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G22" s="1">
         <v>10003</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>18</v>
@@ -3023,26 +3045,25 @@
         <v>1110</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G23" s="1">
         <v>10003</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>18</v>
@@ -3062,26 +3083,25 @@
         <v>1111</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G24" s="1">
         <v>10003</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>18</v>
@@ -3101,26 +3121,25 @@
         <v>1112</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25" s="1">
         <v>10003</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>18</v>
@@ -3140,26 +3159,25 @@
         <v>1113</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G26" s="1">
         <v>10003</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>18</v>
@@ -3179,26 +3197,25 @@
         <v>1114</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G27" s="1">
         <v>10003</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>18</v>
@@ -3218,26 +3235,25 @@
         <v>1107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G28" s="1">
         <v>10003</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>39</v>
@@ -3257,26 +3273,25 @@
         <v>1108</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G29" s="1">
         <v>10003</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>39</v>
@@ -3296,26 +3311,25 @@
         <v>1109</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G30" s="1">
         <v>10003</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>39</v>
@@ -3335,26 +3349,25 @@
         <v>1110</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G31" s="1">
         <v>10003</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>39</v>
@@ -3374,26 +3387,25 @@
         <v>1111</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G32" s="1">
         <v>10003</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>39</v>
@@ -3413,26 +3425,25 @@
         <v>1112</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G33" s="1">
         <v>10003</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>39</v>
@@ -3452,26 +3463,25 @@
         <v>1113</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G34" s="1">
         <v>10003</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>39</v>
@@ -3491,26 +3501,25 @@
         <v>1114</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G35" s="1">
         <v>10003</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>39</v>
@@ -3530,29 +3539,28 @@
         <v>1107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G36" s="1">
         <v>10003</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K36" s="1" t="b">
         <v>1</v>
@@ -3569,29 +3577,28 @@
         <v>1108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G37" s="1">
         <v>10003</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K37" s="1" t="b">
         <v>1</v>
@@ -3608,29 +3615,28 @@
         <v>1109</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G38" s="1">
         <v>10003</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K38" s="1" t="b">
         <v>1</v>
@@ -3647,29 +3653,28 @@
         <v>1110</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G39" s="1">
         <v>10003</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K39" s="1" t="b">
         <v>1</v>
@@ -3686,29 +3691,28 @@
         <v>1111</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G40" s="1">
         <v>10003</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K40" s="1" t="b">
         <v>1</v>
@@ -3725,29 +3729,28 @@
         <v>1112</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G41" s="1">
         <v>10003</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K41" s="1" t="b">
         <v>1</v>
@@ -3764,29 +3767,28 @@
         <v>1113</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G42" s="1">
         <v>10003</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K42" s="1" t="b">
         <v>1</v>
@@ -3803,29 +3805,28 @@
         <v>1114</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G43" s="1">
         <v>10003</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K43" s="1" t="b">
         <v>1</v>
@@ -3842,26 +3843,25 @@
         <v>1115</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G44" s="1">
         <v>10002</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>18</v>
@@ -3881,26 +3881,25 @@
         <v>1116</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G45" s="1">
         <v>10002</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>18</v>
@@ -3920,26 +3919,25 @@
         <v>1117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G46" s="1">
         <v>10002</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>18</v>
@@ -3959,26 +3957,25 @@
         <v>1118</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G47" s="1">
         <v>10002</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>18</v>
@@ -3998,26 +3995,25 @@
         <v>1119</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G48" s="1">
         <v>10002</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>18</v>
@@ -4037,26 +4033,25 @@
         <v>1120</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G49" s="1">
         <v>10002</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>18</v>
@@ -4076,26 +4071,25 @@
         <v>1121</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G50" s="1">
         <v>10002</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>18</v>
@@ -4115,26 +4109,25 @@
         <v>1122</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G51" s="1">
         <v>10002</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>18</v>
@@ -4154,26 +4147,25 @@
         <v>1123</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G52" s="1">
         <v>10002</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>18</v>
@@ -4193,26 +4185,25 @@
         <v>1115</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G53" s="1">
         <v>10002</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>39</v>
@@ -4232,26 +4223,25 @@
         <v>1116</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G54" s="1">
         <v>10002</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>39</v>
@@ -4271,26 +4261,25 @@
         <v>1117</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G55" s="1">
         <v>10002</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>39</v>
@@ -4310,26 +4299,25 @@
         <v>1118</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G56" s="1">
         <v>10002</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>39</v>
@@ -4349,26 +4337,25 @@
         <v>1119</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G57" s="1">
         <v>10002</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>39</v>
@@ -4388,26 +4375,25 @@
         <v>1120</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G58" s="1">
         <v>10002</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>39</v>
@@ -4427,26 +4413,25 @@
         <v>1121</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G59" s="1">
         <v>10002</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>39</v>
@@ -4466,26 +4451,25 @@
         <v>1122</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G60" s="1">
         <v>10002</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>39</v>
@@ -4505,26 +4489,25 @@
         <v>1123</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G61" s="1">
         <v>10002</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>39</v>
@@ -4544,29 +4527,28 @@
         <v>1115</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G62" s="1">
         <v>10002</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K62" s="1" t="b">
         <v>1</v>
@@ -4583,29 +4565,28 @@
         <v>1116</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G63" s="1">
         <v>10002</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K63" s="1" t="b">
         <v>1</v>
@@ -4622,29 +4603,28 @@
         <v>1117</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G64" s="1">
         <v>10002</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K64" s="1" t="b">
         <v>1</v>
@@ -4661,29 +4641,28 @@
         <v>1118</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G65" s="1">
         <v>10002</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K65" s="1" t="b">
         <v>1</v>
@@ -4700,29 +4679,28 @@
         <v>1119</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G66" s="1">
         <v>10002</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K66" s="1" t="b">
         <v>1</v>
@@ -4739,29 +4717,28 @@
         <v>1120</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G67" s="1">
         <v>10002</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K67" s="1" t="b">
         <v>1</v>
@@ -4778,29 +4755,28 @@
         <v>1121</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G68" s="1">
         <v>10002</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K68" s="1" t="b">
         <v>1</v>
@@ -4817,29 +4793,28 @@
         <v>1122</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G69" s="1">
         <v>10002</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K69" s="1" t="b">
         <v>1</v>
@@ -4856,29 +4831,28 @@
         <v>1123</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G70" s="1">
         <v>10002</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K70" s="1" t="b">
         <v>1</v>
@@ -4895,26 +4869,25 @@
         <v>1124</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G71" s="1">
         <v>10001</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>18</v>
@@ -4934,26 +4907,25 @@
         <v>1125</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G72" s="1">
         <v>10001</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>18</v>
@@ -4973,26 +4945,25 @@
         <v>1126</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G73" s="1">
         <v>10001</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>18</v>
@@ -5012,26 +4983,25 @@
         <v>1127</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G74" s="1">
         <v>10001</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>18</v>
@@ -5051,26 +5021,25 @@
         <v>1128</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G75" s="1">
         <v>10001</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>18</v>
@@ -5090,26 +5059,25 @@
         <v>1129</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G76" s="1">
         <v>10001</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>18</v>
@@ -5129,26 +5097,25 @@
         <v>1124</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G77" s="1">
         <v>10001</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>39</v>
@@ -5168,26 +5135,25 @@
         <v>1125</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G78" s="1">
         <v>10001</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>39</v>
@@ -5207,26 +5173,25 @@
         <v>1126</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G79" s="1">
         <v>10001</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>39</v>
@@ -5246,26 +5211,25 @@
         <v>1127</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G80" s="1">
         <v>10001</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>39</v>
@@ -5285,26 +5249,25 @@
         <v>1128</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G81" s="1">
         <v>10001</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>39</v>
@@ -5324,26 +5287,25 @@
         <v>1129</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G82" s="1">
         <v>10001</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>39</v>
@@ -5363,29 +5325,28 @@
         <v>1124</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G83" s="1">
         <v>10001</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K83" s="1" t="b">
         <v>1</v>
@@ -5402,29 +5363,28 @@
         <v>1125</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G84" s="1">
         <v>10001</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K84" s="1" t="b">
         <v>1</v>
@@ -5441,29 +5401,28 @@
         <v>1126</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G85" s="1">
         <v>10001</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K85" s="1" t="b">
         <v>1</v>
@@ -5480,29 +5439,28 @@
         <v>1127</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G86" s="1">
         <v>10001</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K86" s="1" t="b">
         <v>1</v>
@@ -5519,29 +5477,28 @@
         <v>1128</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G87" s="1">
         <v>10001</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K87" s="1" t="b">
         <v>1</v>
@@ -5558,29 +5515,28 @@
         <v>1129</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G88" s="1">
         <v>10001</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K88" s="1" t="b">
         <v>1</v>
@@ -5597,26 +5553,25 @@
         <v>1130</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G89" s="1">
         <v>10001</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>18</v>
@@ -5636,29 +5591,28 @@
         <v>1130</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G90" s="1">
         <v>10001</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K90" s="1" t="b">
         <v>1</v>
@@ -5675,26 +5629,25 @@
         <v>1130</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G91" s="1">
         <v>10001</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>39</v>
@@ -5714,26 +5667,25 @@
         <v>1131</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E92" s="1"/>
+        <v>225</v>
+      </c>
       <c r="F92" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G92" s="1">
         <v>10003</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>18</v>
@@ -5753,29 +5705,28 @@
         <v>1131</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E93" s="1"/>
+        <v>225</v>
+      </c>
       <c r="F93" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G93" s="1">
         <v>10003</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K93" s="1" t="b">
         <v>1</v>
@@ -5792,26 +5743,25 @@
         <v>1131</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E94" s="1"/>
+        <v>225</v>
+      </c>
       <c r="F94" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G94" s="1">
         <v>10003</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>39</v>
@@ -5831,26 +5781,25 @@
         <v>1132</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G95" s="1">
         <v>10003</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>18</v>
@@ -5870,26 +5819,25 @@
         <v>1132</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G96" s="1">
         <v>10003</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>39</v>
@@ -5909,29 +5857,28 @@
         <v>1132</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G97" s="1">
         <v>10003</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K97" s="1" t="b">
         <v>1</v>
@@ -5948,26 +5895,25 @@
         <v>1133</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G98" s="1">
         <v>10003</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>18</v>
@@ -5987,26 +5933,25 @@
         <v>1133</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G99" s="1">
         <v>10003</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>39</v>
@@ -6026,29 +5971,28 @@
         <v>1133</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G100" s="1">
         <v>10003</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K100" s="1" t="b">
         <v>1</v>
@@ -6065,26 +6009,25 @@
         <v>1134</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G101" s="1">
         <v>10003</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>18</v>
@@ -6104,26 +6047,25 @@
         <v>1134</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G102" s="1">
         <v>10003</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>39</v>
@@ -6143,29 +6085,28 @@
         <v>1134</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G103" s="1">
         <v>10003</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K103" s="1" t="b">
         <v>1</v>
@@ -6182,26 +6123,25 @@
         <v>1135</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G104" s="1">
         <v>10003</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>18</v>
@@ -6221,26 +6161,25 @@
         <v>1135</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G105" s="1">
         <v>10003</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>39</v>
@@ -6260,29 +6199,28 @@
         <v>1135</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G106" s="1">
         <v>10003</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K106" s="1" t="b">
         <v>1</v>
@@ -6299,28 +6237,28 @@
         <v>1136</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G107" s="1">
         <v>10005</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>18</v>
@@ -6340,28 +6278,28 @@
         <v>1136</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G108" s="1">
         <v>10005</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>39</v>
@@ -6381,31 +6319,31 @@
         <v>1136</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G109" s="1">
         <v>10005</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K109" s="1" t="b">
         <v>1</v>
@@ -6422,28 +6360,28 @@
         <v>1137</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G110" s="1">
         <v>10005</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>18</v>
@@ -6463,28 +6401,28 @@
         <v>1137</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G111" s="1">
         <v>10005</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>39</v>
@@ -6504,31 +6442,31 @@
         <v>1137</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G112" s="1">
         <v>10005</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K112" s="1" t="b">
         <v>1</v>
@@ -6545,28 +6483,28 @@
         <v>1138</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G113" s="1">
         <v>10005</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>18</v>
@@ -6586,28 +6524,28 @@
         <v>1138</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G114" s="1">
         <v>10005</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>39</v>
@@ -6627,31 +6565,31 @@
         <v>1138</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G115" s="1">
         <v>10005</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K115" s="1" t="b">
         <v>1</v>
@@ -6668,28 +6606,28 @@
         <v>1139</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G116" s="1">
         <v>10005</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>18</v>
@@ -6709,28 +6647,28 @@
         <v>1139</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G117" s="1">
         <v>10005</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>39</v>
@@ -6750,31 +6688,31 @@
         <v>1139</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G118" s="1">
         <v>10005</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K118" s="1" t="b">
         <v>1</v>
@@ -6791,28 +6729,28 @@
         <v>1140</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G119" s="1">
         <v>10005</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>18</v>
@@ -6832,28 +6770,28 @@
         <v>1140</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G120" s="1">
         <v>10005</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>39</v>
@@ -6873,31 +6811,31 @@
         <v>1140</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G121" s="1">
         <v>10005</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K121" s="1" t="b">
         <v>1</v>
@@ -6909,8 +6847,172 @@
         <v>20</v>
       </c>
     </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>297</v>
+      </c>
+      <c r="B122" t="s">
+        <v>298</v>
+      </c>
+      <c r="C122" t="s">
+        <v>299</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F122" t="s">
+        <v>301</v>
+      </c>
+      <c r="G122">
+        <v>10001</v>
+      </c>
+      <c r="H122" t="s">
+        <v>302</v>
+      </c>
+      <c r="I122" t="s">
+        <v>189</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K122" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B123" t="s">
+        <v>298</v>
+      </c>
+      <c r="C123" t="s">
+        <v>299</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F123" t="s">
+        <v>301</v>
+      </c>
+      <c r="G123">
+        <v>10002</v>
+      </c>
+      <c r="H123" t="s">
+        <v>302</v>
+      </c>
+      <c r="I123" t="s">
+        <v>189</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K123" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>305</v>
+      </c>
+      <c r="B124" t="s">
+        <v>298</v>
+      </c>
+      <c r="C124" t="s">
+        <v>299</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F124" t="s">
+        <v>301</v>
+      </c>
+      <c r="G124">
+        <v>10003</v>
+      </c>
+      <c r="H124" t="s">
+        <v>302</v>
+      </c>
+      <c r="I124" t="s">
+        <v>189</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>306</v>
+      </c>
+      <c r="B125" t="s">
+        <v>298</v>
+      </c>
+      <c r="C125" t="s">
+        <v>299</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F125" t="s">
+        <v>301</v>
+      </c>
+      <c r="G125">
+        <v>10004</v>
+      </c>
+      <c r="H125" t="s">
+        <v>302</v>
+      </c>
+      <c r="I125" t="s">
+        <v>189</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M106" xr:uid="{606D01AB-69AF-42F0-9A8A-DE1226555770}"/>
+  <autoFilter ref="A1:M125" xr:uid="{606D01AB-69AF-42F0-9A8A-DE1226555770}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/docs/requirements/Master Data Tables - Test Data/master-template.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{46416F6F-D978-41B4-B8BF-BBFB648AD511}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F94E04C8-0165-4CD0-BD47-39F629A1BF40}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="321">
   <si>
     <t>id</t>
   </si>
@@ -1265,14 +1265,6 @@
     <t>Accusé de réception généré après lenregistrement - Partie 3</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;td&gt;&lt;p class="headings"&gt;${ParentUINPrimLabel} / ${ParentUINSecLabel}&lt;/p&gt;&lt;br/&gt;${ParentUIN}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;br/&gt;&lt;p ${DocumentsEnabled} class="head"&gt;&lt;b&gt;${DocumentsPrimLabel}&lt;/b&gt;&lt;/p&gt;&lt;div ${DocumentsEnabled} ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyDocuments"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr ${DocumentsEnabled}/&gt;&lt;table ${DocumentsEnabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${DocumentsPrimLabel} / ${DocumentsSecLabel}&lt;/p&gt;&lt;br/&gt;${Documents}&lt;br/&gt;${DocumentsSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;br/&gt;&lt;p ${BiometricsEnabled} class="head"&gt;&lt;b&gt;${BiometricsPrimLabel}&lt;/b&gt;&lt;/p&gt;&lt;div ${BiometricsEnabled} ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyBiometrics"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr ${BiometricsEnabled}/&gt;&lt;table ${BiometricsEnabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${BiometricsPrimLabel} / ${BiometricsSecLabel}&lt;/p&gt;&lt;br/&gt;${Biometrics}&lt;br/&gt;${BiometricsSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table ${IrisDisabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table ${IrisEnabled} ${WithException} class="biometricsTable"&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${leftEyeCaptured}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td&gt;&lt;div class="biometrics"&gt;&lt;h5 class="iris"&gt;${LeftEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td&gt;&lt;div class="biometrics"&gt;&lt;h5 class="iris"&gt;${RightEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td ${leftEyeCaptured}&gt;&lt;img src="${CapturedLeftEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;img src="${CapturedRightEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table ${IrisEnabled} class="tableWithoutException" ${WithoutException}&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftEyeCaptured}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;div class="biometrics"&gt;&lt;h5 class="irisWithoutException"&gt;${LeftEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td&gt;&lt;div class="biometrics"&gt;&lt;h5 class="irisWithoutException"&gt;${RightEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftEyeCaptured}&gt;&lt;img src="${CapturedLeftEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;img src="${CapturedRightEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table ${FingerprintsCaptured} class="biometricsTable"&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p class="headings"&gt;${LeftPalmPrimLabel} / ${LeftPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RightPalmPrimLabel} / ${RightPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${ThumbsPrimLabel} / ${ThumbsSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p class="headings"&gt;${LeftPalmPrimLabel} / ${LeftPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p class="headings"&gt;${RightPalmPrimLabel} / ${RightPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p class="headings"&gt;${ThumbsPrimLabel} / ${ThumbsSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;div class="biometrics"&gt;&lt;h5 class="leftLittle"&gt;${leftLittle}&lt;/h5&gt;&lt;h5 class="leftRing"&gt;${leftRing}&lt;/h5&gt;&lt;h5 class="leftMiddle"&gt;${leftMiddle}&lt;/h5&gt;&lt;h5 class="leftIndex"&gt;${leftIndex}&lt;/h5&gt;&lt;img src="${LeftPalmImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td&gt;&lt;div class="biometrics"&gt;&lt;h5 class="rightIndex"&gt;${rightIndex}&lt;/h5&gt;&lt;h5 class="rightMiddle"&gt;${rightMiddle}&lt;/h5&gt;&lt;h5 class="rightRing"&gt;${rightRing}&lt;/h5&gt;&lt;h5 class="rightLittle"&gt;${rightLittle}&lt;/h5&gt;&lt;img src="${RightPalmImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td&gt;&lt;div class="biometrics"&gt;&lt;h5 class="leftThumb"&gt;${leftThumb}&lt;/h5&gt;&lt;h5 class="rightThumb"&gt;${rightThumb}&lt;/h5&gt;&lt;img src="${ThumbsImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;img src="${CapturedLeftSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;img src="${CapturedRightSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;img src="${CapturedThumbs}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;hr/&gt;&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td ${ROImage}&gt;&lt;img src="${ROImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RONamePrimLabel} / ${RONameSecLabel}&lt;/p&gt;&lt;br/&gt;${ROName}&lt;br/&gt;${RONameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegCenterPrimLabel} / ${RegCenterSecLabel}&lt;/p&gt;&lt;br/&gt;${RegCenter}&lt;br/&gt;${RegCenterSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;hr/&gt;&lt;br/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${AckReceipt}&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim Ad minim veniam, quis nostrud exercitation. Ullamco laboris nisi ut aliquip exea commodo consequat. Duis aute irure dolor in Reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur.Cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat.Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim Ad minim veniam, quis nostrud exercitation. Ullamco laboris nisi ut aliquip exea commodo consequat. Duis aute irure dolor in Reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur.Cupidatat non proident, sunt in culpa qui offici.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;
-</t>
-  </si>
-  <si>
     <t>preregistration</t>
   </si>
   <si>
@@ -1301,9 +1293,6 @@
   </si>
   <si>
     <t>registrationclient</t>
-  </si>
-  <si>
-    <t>&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:540px;}.applicantPhoto{position:absolute;top:-35px;left:670px;}.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:690px;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}td,p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:158px;}.irisWithoutException{top:-15px;left:120px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:98px;}.leftRing{top:3px;left:111px;}.leftMiddle{top:-7px;left:127px;}.leftIndex{top:3px;left:140px;}.rightIndex{top:3px;left:113px;}.rightMiddle{top:-7px;left:127px;}.rightRing{top:3px;left:140px;}.rightLittle{top:15px;left:154px;}.leftThumb{top:-4px;left:113px;}.rightThumb{top:-4px;left:138px;}li span{color:black;font-size:12px;}li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}&lt;/style&gt;&lt;/head&gt;&lt;body&gt;&lt;div class="section"&gt;&lt;div class="form"&gt;&lt;table ${AckReceipt} class="${headerTable}"&gt;&lt;tr&gt;&lt;td class="bottom"&gt;&lt;img src="${QRCodeSource}" width="270" height="270"/&gt;&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${RIDPrimLabel} / ${RIDSecLabel}&lt;/p&gt;&lt;br/&gt;${RID}&lt;/td&gt;&lt;td ${UINUpdate} class="bottom"&gt;&lt;p class="headings"&gt;${UINPrimLabel} / ${UINSecLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table ${Preview} class="headerTable"&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${PreRegIDPrimLabel} / ${PreRegIDSecLabel}&lt;/p&gt;&lt;br/&gt;${PreRegID}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;br/&gt;&lt;hr/&gt;&lt;p class="head"&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;div ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyDemographicInfo"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr/&gt;&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${FullNamePrimLabel} / ${FullNameSecLabel}&lt;/p&gt;&lt;br/&gt;${FullName}&lt;br/&gt;${FullNameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${GenderPrimLabel} / ${GenderSecLabel}&lt;/p&gt;&lt;br/&gt;${Gender}&lt;br/&gt;${GenderSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${DOBPrimLabel} / ${DOBSecLabel}&lt;/p&gt;&lt;br/&gt;${DOB}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AgePrimLabel} / ${AgeSecLabel}&lt;/p&gt;&lt;br/&gt;${Age} ${YearsPrim} / ${YearsSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ForiegnerPrimLabel} / ${ForiegnerSecLabel}&lt;/p&gt;&lt;br/&gt;${ResidenceStatus}&lt;br/&gt;${ResidenceStatusSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine1PrimLabel} / ${AddressLine1SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine1}&lt;br/&gt;${AddressLine1Sec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine2PrimLabel} / ${AddressLine2SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine2}&lt;br/&gt;${AddressLine2Sec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegionPrimLabel} / ${RegionSecLabel}&lt;/p&gt;&lt;br/&gt;${Region}&lt;br/&gt;${RegionSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ProvincePrimLabel} / ${ProvinceSecLabel}&lt;/p&gt;&lt;br/&gt;${Province}&lt;br/&gt;${ProvinceSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${LocalAuthorityPrimLabel} / ${LocalAuthoritySecLabel}&lt;/p&gt;&lt;br/&gt;${LocalAuthority}&lt;br/&gt;${LocalAuthoritySec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${MobilePrimLabel} / ${MobileSecLabel}&lt;/p&gt;&lt;br/&gt;${Mobile}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${PostalCodePrimLabel} / ${PostalCodeSecLabel}&lt;/p&gt;&lt;br/&gt;${PostalCode}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${EmailPrimLabel} / ${EmailSecLabel}&lt;/p&gt;&lt;br/&gt;${Email}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${CNIEPrimLabel} / ${CNIESecLabel}&lt;/p&gt;&lt;br/&gt;${CNIE}&lt;/td&gt;&lt;/tr&gt;&lt;tr ${WithParent}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ParentNamePrimLabel} / ${ParentNameSecLabel}&lt;/p&gt;&lt;br/&gt;${ParentName}&lt;br/&gt;${ParentNameSec}&lt;/td&gt;</t>
   </si>
   <si>
     <t>عزيزي $name ،
@@ -1321,13 +1310,69 @@
   </si>
   <si>
     <t>UIN $uin: طلب OTP</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:465px;}.applicantPhoto{position:absolute;top:-35px;left:670px;}.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:690px;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}td,p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:90px;}.leftRing{top:3px;left:103px;}.leftMiddle{top:-7px;left:119px;}.leftIndex{top:3px;left:132px;}.rightIndex{top:3px;left:105px;}.rightMiddle{top:-7px;left:119px;}.rightRing{top:3px;left:132px;}.rightLittle{top:15px;left:146px;}.leftThumb{top:-4px;left:105px;}.rightThumb{top:-4px;left:130px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;}
+input[type="radio"] {display: none;}
+input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}
+input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}
+*,*:before,*:after { box-sizing: border-box;}
+.consent-block label { display: inline-flex; align-items: center;}
+&lt;/style&gt;&lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>&lt;body&gt;&lt;div class="section"&gt;&lt;div class="form"&gt;
+&lt;table ${AckReceipt} class="${headerTable}"&gt;&lt;tr&gt;&lt;td class="bottom"&gt;&lt;img src="${QRCodeSource}" width="270" height="270"/&gt;&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${RIDPrimLabel} / ${RIDSecLabel}&lt;/p&gt;&lt;br/&gt;${RID}&lt;/td&gt;&lt;td ${UINUpdate} class="bottom"&gt;&lt;p class="headings"&gt;${UINPrimLabel} / ${UINSecLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;table ${Preview} class="headerTable"&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${PreRegIDPrimLabel} / ${PreRegIDSecLabel}&lt;/p&gt;&lt;br/&gt;${PreRegID}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;br/&gt;&lt;hr/&gt;&lt;p class="head"&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;div ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyDemographicInfo"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr/&gt;
+&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${FullNamePrimLabel} / ${FullNameSecLabel}&lt;/p&gt;&lt;br/&gt;${FullName}&lt;br/&gt;${FullNameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${GenderPrimLabel} / ${GenderSecLabel}&lt;/p&gt;&lt;br/&gt;${Gender}&lt;br/&gt;${GenderSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${DOBPrimLabel} / ${DOBSecLabel}&lt;/p&gt;&lt;br/&gt;${DOB}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AgePrimLabel} / ${AgeSecLabel}&lt;/p&gt;&lt;br/&gt;${Age} ${YearsPrim} / ${YearsSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ForiegnerPrimLabel} / ${ForiegnerSecLabel}&lt;/p&gt;&lt;br/&gt;${ResidenceStatus}&lt;br/&gt;${ResidenceStatusSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine1PrimLabel} / ${AddressLine1SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine1}&lt;br/&gt;${AddressLine1Sec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine2PrimLabel} / ${AddressLine2SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine2}&lt;br/&gt;${AddressLine2Sec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegionPrimLabel} / ${RegionSecLabel}&lt;/p&gt;&lt;br/&gt;${Region}&lt;br/&gt;${RegionSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ProvincePrimLabel} / ${ProvinceSecLabel}&lt;/p&gt;&lt;br/&gt;${Province}&lt;br/&gt;${ProvinceSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${LocalAuthorityPrimLabel} / ${LocalAuthoritySecLabel}&lt;/p&gt;&lt;br/&gt;${LocalAuthority}&lt;br/&gt;${LocalAuthoritySec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${MobilePrimLabel} / ${MobileSecLabel}&lt;/p&gt;&lt;br/&gt;${Mobile}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${PostalCodePrimLabel} / ${PostalCodeSecLabel}&lt;/p&gt;&lt;br/&gt;${PostalCode}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${EmailPrimLabel} / ${EmailSecLabel}&lt;/p&gt;&lt;br/&gt;${Email}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${CNIEPrimLabel} / ${CNIESecLabel}&lt;/p&gt;&lt;br/&gt;${CNIE}&lt;/td&gt;&lt;/tr&gt;&lt;tr ${WithParent}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ParentNamePrimLabel} / ${ParentNameSecLabel}&lt;/p&gt;&lt;br/&gt;${ParentName}&lt;br/&gt;${ParentNameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${ParentUINPrimLabel} / ${ParentUINSecLabel}&lt;/p&gt;&lt;br/&gt;${ParentUIN}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;br/&gt;&lt;p ${DocumentsEnabled} class="head"&gt;&lt;b&gt;${DocumentsPrimLabel}&lt;/b&gt;&lt;/p&gt;&lt;div ${DocumentsEnabled} ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyDocuments"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr ${DocumentsEnabled}/&gt;
+&lt;table ${DocumentsEnabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${DocumentsPrimLabel} / ${DocumentsSecLabel}&lt;/p&gt;&lt;br/&gt;${Documents}&lt;br/&gt;${DocumentsSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;br/&gt;&lt;p ${BiometricsEnabled} class="head"&gt;&lt;b&gt;${BiometricsPrimLabel}&lt;/b&gt;&lt;/p&gt;&lt;div ${BiometricsEnabled} ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyBiometrics"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr ${BiometricsEnabled}/&gt;
+&lt;table ${BiometricsEnabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${BiometricsPrimLabel} / ${BiometricsSecLabel}&lt;/p&gt;&lt;br/&gt;${Biometrics}&lt;br/&gt;${BiometricsSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;table ${IrisDisabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>&lt;table ${IrisEnabled} ${WithException} class="biometricsTable"&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentLeftEye}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${leftEyeCaptured}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td ${parentLeftEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisWithException}"&gt;${LeftEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisWithException}"&gt;${RightEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;
+&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td ${leftEyeCaptured}&gt;&lt;img src="${CapturedLeftEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;img src="${CapturedRightEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;table ${IrisEnabled} class="tableWithoutException" ${WithoutException}&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftEye}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftEyeCaptured}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisStyle}"&gt;${LeftEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisStyle}"&gt;${RightEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftEyeCaptured}&gt;&lt;img src="${CapturedLeftEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;img src="${CapturedRightEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;table ${FingerprintsCaptured} class="biometricsTable"&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftSlap}&gt;&lt;p class="headings"&gt;${LeftPalmPrimLabel} / ${LeftPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentRightSlap}&gt;&lt;p class="headings"&gt;${RightPalmPrimLabel} / ${RightPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentThumbs}&gt;&lt;p class="headings"&gt;${ThumbsPrimLabel} / ${ThumbsSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p class="headings"&gt;${LeftPalmPrimLabel} / ${LeftPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p class="headings"&gt;${RightPalmPrimLabel} / ${RightPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p class="headings"&gt;${ThumbsPrimLabel} / ${ThumbsSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftSlap}&gt;&lt;div class="biometrics"&gt;&lt;h5 ${isChild} class="leftLittle"&gt;${leftLittle}&lt;/h5&gt;&lt;h5 ${isChild} class="leftRing"&gt;${leftRing}&lt;/h5&gt;&lt;h5 ${isChild} class="leftMiddle"&gt;${leftMiddle}&lt;/h5&gt;&lt;h5 class="${childLeft}"&gt;${leftIndex}&lt;/h5&gt;&lt;img src="${LeftPalmImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentRightSlap}&gt;&lt;div class="biometrics"&gt;&lt;h5 ${isChild} class="rightIndex"&gt;${rightIndex}&lt;/h5&gt;&lt;h5 ${isChild} class="rightMiddle"&gt;${rightMiddle}&lt;/h5&gt;&lt;h5 ${isChild} class="rightRing"&gt;${rightRing}&lt;/h5&gt;&lt;h5 class="${childRight}"&gt;${rightLittle}&lt;/h5&gt;&lt;img src="${RightPalmImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentThumbs}&gt;&lt;div class="biometrics"&gt;&lt;h5 ${isChild} class="leftThumb"&gt;${leftThumb}&lt;/h5&gt;&lt;h5 class="${childThumbs}"&gt;${rightThumb}&lt;/h5&gt;&lt;img src="${ThumbsImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>Registration Acknowledgement Template - Part 4</t>
+  </si>
+  <si>
+    <t>Acknowledgement generated after registration - Part 4</t>
+  </si>
+  <si>
+    <t>reg-ack-template-part4</t>
+  </si>
+  <si>
+    <t>قالب الاعتراف بالتسجيل - الجزء 4','الإ</t>
+  </si>
+  <si>
+    <t>ر المتولد بعد التسجيل - الجزء 4</t>
+  </si>
+  <si>
+    <t>enregistrement Modèle de remerciement - Partie 4</t>
+  </si>
+  <si>
+    <t>Accusé de réception généré après lenregistrement - Partie 4</t>
+  </si>
+  <si>
+    <t>&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;img src="${CapturedLeftSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;img src="${CapturedRightSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;img src="${CapturedThumbs}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;br/&gt;&lt;div ${Preview}&gt;&lt;p class="head"&gt;&lt;b&gt;${Consent}&lt;/b&gt;&lt;/p&gt;&lt;hr/&gt;&lt;div class="consent-block"&gt;${ConsentData}&lt;br/&gt;
+&lt;input type="radio" name="consent" id="consent-yes" ${SelectedYes}&gt;&lt;label for="consent-yes"&gt;${Yes}&lt;/label&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;
+&lt;input type="radio" name="consent" id="consent-no" ${SelectedNo}&gt;&lt;label for="consent-no"&gt;${No}&lt;/label&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr/&gt;
+&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td ${ROImage}&gt;&lt;img src="${ROImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RONamePrimLabel} / ${RONameSecLabel}&lt;/p&gt;&lt;br/&gt;${ROName}&lt;br/&gt;${RONameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegCenterPrimLabel} / ${RegCenterSecLabel}&lt;/p&gt;&lt;br/&gt;${RegCenter}&lt;br/&gt;${RegCenterSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;hr/&gt;&lt;br/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${AckReceipt}&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim Ad minim veniam, quis nostrud exercitation. Ullamco laboris nisi ut aliquip exea commodo consequat. Duis aute irure dolor in Reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur.Cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat.Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim Ad minim veniam, quis nostrud exercitation. Ullamco laboris nisi ut aliquip exea commodo consequat. Duis aute irure dolor in Reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur.Cupidatat non proident, sunt in culpa qui offici.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1461,6 +1506,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1644,7 +1694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1759,21 +1809,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1822,12 +1857,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2183,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126:XFD1048576"/>
+      <selection activeCell="A129" sqref="A129:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2197,7 +2230,7 @@
     <col min="6" max="6" width="36" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.453125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -2483,8 +2516,8 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>308</v>
+      <c r="F8" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="G8" s="1">
         <v>10004</v>
@@ -2522,7 +2555,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G9" s="1">
         <v>10004</v>
@@ -2560,7 +2593,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G10" s="1">
         <v>10004</v>
@@ -2597,8 +2630,8 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>311</v>
+      <c r="F11" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G11" s="1">
         <v>10004</v>
@@ -2636,7 +2669,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G12" s="1">
         <v>10004</v>
@@ -6478,7 +6511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>1138</v>
       </c>
@@ -6494,8 +6527,8 @@
       <c r="E113" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>307</v>
+      <c r="F113" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="G113" s="1">
         <v>10005</v>
@@ -6519,7 +6552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>1138</v>
       </c>
@@ -6535,8 +6568,8 @@
       <c r="E114" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>307</v>
+      <c r="F114" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="G114" s="1">
         <v>10005</v>
@@ -6560,7 +6593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>1138</v>
       </c>
@@ -6576,8 +6609,8 @@
       <c r="E115" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>307</v>
+      <c r="F115" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="G115" s="1">
         <v>10005</v>
@@ -6618,7 +6651,7 @@
         <v>259</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="G116" s="1">
         <v>10005</v>
@@ -6659,7 +6692,7 @@
         <v>259</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="G117" s="1">
         <v>10005</v>
@@ -6700,7 +6733,7 @@
         <v>259</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="G118" s="1">
         <v>10005</v>
@@ -6741,7 +6774,7 @@
         <v>259</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G119" s="1">
         <v>10005</v>
@@ -6782,7 +6815,7 @@
         <v>259</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G120" s="1">
         <v>10005</v>
@@ -6823,7 +6856,7 @@
         <v>259</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G121" s="1">
         <v>10005</v>
@@ -6849,34 +6882,34 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>295</v>
+      </c>
+      <c r="B122" t="s">
+        <v>296</v>
+      </c>
+      <c r="C122" t="s">
         <v>297</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C122" t="s">
+      <c r="F122" t="s">
         <v>299</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F122" t="s">
-        <v>301</v>
       </c>
       <c r="G122">
         <v>10001</v>
       </c>
       <c r="H122" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I122" t="s">
         <v>189</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K122" s="1" t="b">
         <v>1</v>
@@ -6890,34 +6923,34 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B123" t="s">
+        <v>296</v>
+      </c>
+      <c r="C123" t="s">
+        <v>297</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C123" t="s">
+      <c r="F123" t="s">
         <v>299</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F123" t="s">
-        <v>301</v>
       </c>
       <c r="G123">
         <v>10002</v>
       </c>
       <c r="H123" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I123" t="s">
         <v>189</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K123" s="1" t="b">
         <v>1</v>
@@ -6931,34 +6964,34 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B124" t="s">
+        <v>296</v>
+      </c>
+      <c r="C124" t="s">
+        <v>297</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C124" t="s">
+      <c r="F124" t="s">
         <v>299</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F124" t="s">
-        <v>301</v>
       </c>
       <c r="G124">
         <v>10003</v>
       </c>
       <c r="H124" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I124" t="s">
         <v>189</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K124" s="1" t="b">
         <v>1</v>
@@ -6972,34 +7005,34 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B125" t="s">
+        <v>296</v>
+      </c>
+      <c r="C125" t="s">
+        <v>297</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C125" t="s">
+      <c r="F125" t="s">
         <v>299</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F125" t="s">
-        <v>301</v>
       </c>
       <c r="G125">
         <v>10004</v>
       </c>
       <c r="H125" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I125" t="s">
         <v>189</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K125" s="1" t="b">
         <v>1</v>
@@ -7008,6 +7041,129 @@
         <v>19</v>
       </c>
       <c r="M125" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>1141</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G126" s="1">
+        <v>10005</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>1141</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G127" s="1">
+        <v>10005</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K127" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>1141</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G128" s="1">
+        <v>10005</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K128" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M128" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/requirements/Master Data Tables - Test Data/master-template.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F94E04C8-0165-4CD0-BD47-39F629A1BF40}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6F6C07CD-9083-4F70-BFAF-10B83C548B7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="master-template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'master-template'!$A$1:$M$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'master-template'!$A$1:$M$158</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="341">
   <si>
     <t>id</t>
   </si>
@@ -110,29 +110,13 @@
     <t>Template for Email Content</t>
   </si>
   <si>
-    <t>Dear $name
-OTP for UIN  $uin is $otp and is valid for $validTime minutes. (Generated on $date at $time Hrs)</t>
-  </si>
-  <si>
-    <t>otp-email-content</t>
-  </si>
-  <si>
     <t>Template for Email Subject</t>
   </si>
   <si>
     <t>UIN $uin: OTP Request</t>
   </si>
   <si>
-    <t>otp-email-subject</t>
-  </si>
-  <si>
     <t xml:space="preserve">Template for OTP in SMS </t>
-  </si>
-  <si>
-    <t>OTP for UIN  $uin is $otp and is valid for $validTime minutes. (Generated on $date at $time Hrs)</t>
-  </si>
-  <si>
-    <t>otp-sms</t>
   </si>
   <si>
     <t>قالب لمحتوى التخويل</t>
@@ -188,10 +172,6 @@
   </si>
   <si>
     <t>Modèle de contenu de courrier électronique</t>
-  </si>
-  <si>
-    <t>Cher $name,
-OTP pour UIN $uin est $otp et est valide pour $validTime minutes. (Généré le $date à $time Hrs)</t>
   </si>
   <si>
     <t>Modèle pour sujet demail</t>
@@ -1115,24 +1095,6 @@
     <t>velocity</t>
   </si>
   <si>
-    <t>Dear ${ResidentName},
-Thank you for registering with Digital Identity platform . Your registration id is "${RID}". The demographic details are as follows:
-1.Date:${Date}
-2.Full Name:${FullName}
-3.Date of Birth:${DOB}
-4.Gender:${Gender}
-5.Address Line 1:${AddressLine1}
-6.Address Line 2:${AddressLine2}
-7.Address Line 3:${AddressLine3}
-8.Region:${Region}
-9.City:${City}
-10.State or Province:${Province}
-11.Postal Code:${PostalCode}
-12.Mobile:${Mobile}
-13.Email:${Email}
-If there are any corrections to be made to the above details, kindly contact the Registration centre within the next 4 days.</t>
-  </si>
-  <si>
     <t>registration</t>
   </si>
   <si>
@@ -1145,46 +1107,10 @@
     <t>نموذج شكر التسجيل</t>
   </si>
   <si>
-    <t>العزيز ${ResidentName},
-نشكرك على التسجيل في منصة Digital Identity. معرف التسجيل الخاص بك هو "${RID}". التفاصيل الديموغرافية هي على النحو التالي:
-1.تاريخ:${Date}
-2.الاسم الكامل:${FullName}
-3.تاريخ الولادة:${DOB}
-4.جنس:${Gender}
-5.خط عنوان 1:${AddressLine1}
-6.خط عنوان 2:${AddressLine2}
-7.خط عنوان 3:${AddressLine3}
-8.منطقة:${Region}
-9.مدينة:${City}
-10.الولاية أو المقاطعة:${Province}
-11.الرمز البريدي:${PostalCode}
-12.التليفون المحمول:${Mobile}
-13.البريد الإلكتروني:${Email}
-إذا كان هناك أي تصحيحات يجب إدخالها على التفاصيل المذكورة أعلاه ، يرجى الاتصال بمركز التسجيل في غضون 4 أيام مقبلة.</t>
-  </si>
-  <si>
     <t>Modèle SMS de reconnaissance</t>
   </si>
   <si>
     <t>Modèle de confirmation dinscription</t>
-  </si>
-  <si>
-    <t>cher ${ResidentName},
-Merci de vous être inscrit à la plateforme d’identité numérique. Votre identifiant d'inscription est"${RID}". Les détails démographiques sont les suivants:
-1.Rendez-vous amoureux:${Date}
-2.Nom complet:${FullName}
-3.Date de naissance:${DOB}
-4.Le sexe:${Gender}
-5.Ligne d'adresse 1:${AddressLine1}
-6.Ligne d'adresse 2:${AddressLine2}
-7.Ligne d'adresse 3:${AddressLine3}
-8.Région:${Region}
-9.Ville:${City}
-10.état ou province:${Province}
-11.code postal:${PostalCode}
-12.Mobile:${Mobile}
-13.Email:${Email}
-Si des corrections doivent être apportées aux informations ci-dessus, veuillez contacter le centre d’inscription dans les 4 prochains jours.</t>
   </si>
   <si>
     <t>Acknowledgement Email Template</t>
@@ -1305,14 +1231,45 @@
     <t>مصادقة UIN باستخدام $authType هي $date إلى $time hours $status على جهاز تم نشره بواسطة "خدمات MOSIP".</t>
   </si>
   <si>
-    <t>عزيزي $name ،
-OTP لـ UIN $uin هو $otp وهو صالح لمدة $validTime دقيقة. (التي تم إنشاؤها على $date في $time ساعات)</t>
-  </si>
-  <si>
     <t>UIN $uin: طلب OTP</t>
   </si>
   <si>
-    <t>&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:465px;}.applicantPhoto{position:absolute;top:-35px;left:670px;}.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:690px;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}td,p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:90px;}.leftRing{top:3px;left:103px;}.leftMiddle{top:-7px;left:119px;}.leftIndex{top:3px;left:132px;}.rightIndex{top:3px;left:105px;}.rightMiddle{top:-7px;left:119px;}.rightRing{top:3px;left:132px;}.rightLittle{top:15px;left:146px;}.leftThumb{top:-4px;left:105px;}.rightThumb{top:-4px;left:130px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;}
+    <t>&lt;table ${IrisEnabled} ${WithException} class="biometricsTable"&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentLeftEye}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${leftEyeCaptured}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td ${parentLeftEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisWithException}"&gt;${LeftEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisWithException}"&gt;${RightEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;
+&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td ${leftEyeCaptured}&gt;&lt;img src="${CapturedLeftEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;img src="${CapturedRightEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;table ${IrisEnabled} class="tableWithoutException" ${WithoutException}&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftEye}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftEyeCaptured}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisStyle}"&gt;${LeftEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisStyle}"&gt;${RightEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftEyeCaptured}&gt;&lt;img src="${CapturedLeftEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;img src="${CapturedRightEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;table ${FingerprintsCaptured} class="biometricsTable"&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftSlap}&gt;&lt;p class="headings"&gt;${LeftPalmPrimLabel} / ${LeftPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentRightSlap}&gt;&lt;p class="headings"&gt;${RightPalmPrimLabel} / ${RightPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentThumbs}&gt;&lt;p class="headings"&gt;${ThumbsPrimLabel} / ${ThumbsSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p class="headings"&gt;${LeftPalmPrimLabel} / ${LeftPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p class="headings"&gt;${RightPalmPrimLabel} / ${RightPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p class="headings"&gt;${ThumbsPrimLabel} / ${ThumbsSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftSlap}&gt;&lt;div class="biometrics"&gt;&lt;h5 ${isChild} class="leftLittle"&gt;${leftLittle}&lt;/h5&gt;&lt;h5 ${isChild} class="leftRing"&gt;${leftRing}&lt;/h5&gt;&lt;h5 ${isChild} class="leftMiddle"&gt;${leftMiddle}&lt;/h5&gt;&lt;h5 class="${childLeft}"&gt;${leftIndex}&lt;/h5&gt;&lt;img src="${LeftPalmImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentRightSlap}&gt;&lt;div class="biometrics"&gt;&lt;h5 ${isChild} class="rightIndex"&gt;${rightIndex}&lt;/h5&gt;&lt;h5 ${isChild} class="rightMiddle"&gt;${rightMiddle}&lt;/h5&gt;&lt;h5 ${isChild} class="rightRing"&gt;${rightRing}&lt;/h5&gt;&lt;h5 class="${childRight}"&gt;${rightLittle}&lt;/h5&gt;&lt;img src="${RightPalmImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentThumbs}&gt;&lt;div class="biometrics"&gt;&lt;h5 ${isChild} class="leftThumb"&gt;${leftThumb}&lt;/h5&gt;&lt;h5 class="${childThumbs}"&gt;${rightThumb}&lt;/h5&gt;&lt;img src="${ThumbsImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>Registration Acknowledgement Template - Part 4</t>
+  </si>
+  <si>
+    <t>Acknowledgement generated after registration - Part 4</t>
+  </si>
+  <si>
+    <t>reg-ack-template-part4</t>
+  </si>
+  <si>
+    <t>قالب الاعتراف بالتسجيل - الجزء 4','الإ</t>
+  </si>
+  <si>
+    <t>ر المتولد بعد التسجيل - الجزء 4</t>
+  </si>
+  <si>
+    <t>enregistrement Modèle de remerciement - Partie 4</t>
+  </si>
+  <si>
+    <t>Accusé de réception généré après lenregistrement - Partie 4</t>
+  </si>
+  <si>
+    <t>&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;img src="${CapturedLeftSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;img src="${CapturedRightSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;img src="${CapturedThumbs}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;br/&gt;&lt;div ${Preview}&gt;&lt;p class="head"&gt;&lt;b&gt;${Consent}&lt;/b&gt;&lt;/p&gt;&lt;hr/&gt;&lt;div class="consent-block"&gt;${ConsentData}&lt;br/&gt;
+&lt;input type="radio" name="consent" id="consent-yes" ${SelectedYes}&gt;&lt;label for="consent-yes"&gt;${Yes}&lt;/label&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;
+&lt;input type="radio" name="consent" id="consent-no" ${SelectedNo}&gt;&lt;label for="consent-no"&gt;${No}&lt;/label&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr/&gt;
+&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td ${ROImage}&gt;&lt;img src="${ROImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RONamePrimLabel} / ${RONameSecLabel}&lt;/p&gt;&lt;br/&gt;${ROName}&lt;br/&gt;${RONameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegCenterPrimLabel} / ${RegCenterSecLabel}&lt;/p&gt;&lt;br/&gt;${RegCenter}&lt;br/&gt;${RegCenterSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;hr/&gt;&lt;br/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${AckReceipt}&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim Ad minim veniam, quis nostrud exercitation. Ullamco laboris nisi ut aliquip exea commodo consequat. Duis aute irure dolor in Reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur.Cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat.Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim Ad minim veniam, quis nostrud exercitation. Ullamco laboris nisi ut aliquip exea commodo consequat. Duis aute irure dolor in Reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur.Cupidatat non proident, sunt in culpa qui offici.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:280px;}.applicantPhoto{position:absolute;top:-35px;left:670px;}.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:690px;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}td,p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:90px;}.leftRing{top:3px;left:103px;}.leftMiddle{top:-7px;left:119px;}.leftIndex{top:3px;left:132px;}.rightIndex{top:3px;left:105px;}.rightMiddle{top:-7px;left:119px;}.rightRing{top:3px;left:132px;}.rightLittle{top:15px;left:146px;}.leftThumb{top:-4px;left:105px;}.rightThumb{top:-4px;left:130px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;}
 input[type="radio"] {display: none;}
 input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}
 input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}
@@ -1322,7 +1279,7 @@
   </si>
   <si>
     <t>&lt;body&gt;&lt;div class="section"&gt;&lt;div class="form"&gt;
-&lt;table ${AckReceipt} class="${headerTable}"&gt;&lt;tr&gt;&lt;td class="bottom"&gt;&lt;img src="${QRCodeSource}" width="270" height="270"/&gt;&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${RIDPrimLabel} / ${RIDSecLabel}&lt;/p&gt;&lt;br/&gt;${RID}&lt;/td&gt;&lt;td ${UINUpdate} class="bottom"&gt;&lt;p class="headings"&gt;${UINPrimLabel} / ${UINSecLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;table ${AckReceipt} class="${headerTable}"&gt;&lt;tr&gt;&lt;td class="bottom"&gt;&lt;img src="${QRCodeSource}" width="85" height="85"/&gt;&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${RIDPrimLabel} / ${RIDSecLabel}&lt;/p&gt;&lt;br/&gt;${RID}&lt;/td&gt;&lt;td ${UINUpdate} class="bottom"&gt;&lt;p class="headings"&gt;${UINPrimLabel} / ${UINSecLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
 &lt;table ${Preview} class="headerTable"&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${PreRegIDPrimLabel} / ${PreRegIDSecLabel}&lt;/p&gt;&lt;br/&gt;${PreRegID}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
 &lt;br/&gt;&lt;hr/&gt;&lt;p class="head"&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;div ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyDemographicInfo"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr/&gt;
 &lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${FullNamePrimLabel} / ${FullNameSecLabel}&lt;/p&gt;&lt;br/&gt;${FullName}&lt;br/&gt;${FullNameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${GenderPrimLabel} / ${GenderSecLabel}&lt;/p&gt;&lt;br/&gt;${Gender}&lt;br/&gt;${GenderSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${DOBPrimLabel} / ${DOBSecLabel}&lt;/p&gt;&lt;br/&gt;${DOB}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AgePrimLabel} / ${AgeSecLabel}&lt;/p&gt;&lt;br/&gt;${Age} ${YearsPrim} / ${YearsSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ForiegnerPrimLabel} / ${ForiegnerSecLabel}&lt;/p&gt;&lt;br/&gt;${ResidenceStatus}&lt;br/&gt;${ResidenceStatusSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine1PrimLabel} / ${AddressLine1SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine1}&lt;br/&gt;${AddressLine1Sec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine2PrimLabel} / ${AddressLine2SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine2}&lt;br/&gt;${AddressLine2Sec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegionPrimLabel} / ${RegionSecLabel}&lt;/p&gt;&lt;br/&gt;${Region}&lt;br/&gt;${RegionSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ProvincePrimLabel} / ${ProvinceSecLabel}&lt;/p&gt;&lt;br/&gt;${Province}&lt;br/&gt;${ProvinceSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${LocalAuthorityPrimLabel} / ${LocalAuthoritySecLabel}&lt;/p&gt;&lt;br/&gt;${LocalAuthority}&lt;br/&gt;${LocalAuthoritySec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${MobilePrimLabel} / ${MobileSecLabel}&lt;/p&gt;&lt;br/&gt;${Mobile}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${PostalCodePrimLabel} / ${PostalCodeSecLabel}&lt;/p&gt;&lt;br/&gt;${PostalCode}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${EmailPrimLabel} / ${EmailSecLabel}&lt;/p&gt;&lt;br/&gt;${Email}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${CNIEPrimLabel} / ${CNIESecLabel}&lt;/p&gt;&lt;br/&gt;${CNIE}&lt;/td&gt;&lt;/tr&gt;&lt;tr ${WithParent}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ParentNamePrimLabel} / ${ParentNameSecLabel}&lt;/p&gt;&lt;br/&gt;${ParentName}&lt;br/&gt;${ParentNameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${ParentUINPrimLabel} / ${ParentUINSecLabel}&lt;/p&gt;&lt;br/&gt;${ParentUIN}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
@@ -1333,46 +1290,144 @@
 &lt;table ${IrisDisabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
   </si>
   <si>
-    <t>&lt;table ${IrisEnabled} ${WithException} class="biometricsTable"&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentLeftEye}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${leftEyeCaptured}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td ${parentLeftEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisWithException}"&gt;${LeftEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisWithException}"&gt;${RightEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;
-&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td ${leftEyeCaptured}&gt;&lt;img src="${CapturedLeftEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;img src="${CapturedRightEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
-&lt;table ${IrisEnabled} class="tableWithoutException" ${WithoutException}&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftEye}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftEyeCaptured}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisStyle}"&gt;${LeftEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisStyle}"&gt;${RightEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftEyeCaptured}&gt;&lt;img src="${CapturedLeftEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;img src="${CapturedRightEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
-&lt;table ${FingerprintsCaptured} class="biometricsTable"&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftSlap}&gt;&lt;p class="headings"&gt;${LeftPalmPrimLabel} / ${LeftPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentRightSlap}&gt;&lt;p class="headings"&gt;${RightPalmPrimLabel} / ${RightPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentThumbs}&gt;&lt;p class="headings"&gt;${ThumbsPrimLabel} / ${ThumbsSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p class="headings"&gt;${LeftPalmPrimLabel} / ${LeftPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p class="headings"&gt;${RightPalmPrimLabel} / ${RightPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p class="headings"&gt;${ThumbsPrimLabel} / ${ThumbsSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftSlap}&gt;&lt;div class="biometrics"&gt;&lt;h5 ${isChild} class="leftLittle"&gt;${leftLittle}&lt;/h5&gt;&lt;h5 ${isChild} class="leftRing"&gt;${leftRing}&lt;/h5&gt;&lt;h5 ${isChild} class="leftMiddle"&gt;${leftMiddle}&lt;/h5&gt;&lt;h5 class="${childLeft}"&gt;${leftIndex}&lt;/h5&gt;&lt;img src="${LeftPalmImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentRightSlap}&gt;&lt;div class="biometrics"&gt;&lt;h5 ${isChild} class="rightIndex"&gt;${rightIndex}&lt;/h5&gt;&lt;h5 ${isChild} class="rightMiddle"&gt;${rightMiddle}&lt;/h5&gt;&lt;h5 ${isChild} class="rightRing"&gt;${rightRing}&lt;/h5&gt;&lt;h5 class="${childRight}"&gt;${rightLittle}&lt;/h5&gt;&lt;img src="${RightPalmImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentThumbs}&gt;&lt;div class="biometrics"&gt;&lt;h5 ${isChild} class="leftThumb"&gt;${leftThumb}&lt;/h5&gt;&lt;h5 class="${childThumbs}"&gt;${rightThumb}&lt;/h5&gt;&lt;img src="${ThumbsImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;</t>
-  </si>
-  <si>
-    <t>Registration Acknowledgement Template - Part 4</t>
-  </si>
-  <si>
-    <t>Acknowledgement generated after registration - Part 4</t>
-  </si>
-  <si>
-    <t>reg-ack-template-part4</t>
-  </si>
-  <si>
-    <t>قالب الاعتراف بالتسجيل - الجزء 4','الإ</t>
-  </si>
-  <si>
-    <t>ر المتولد بعد التسجيل - الجزء 4</t>
-  </si>
-  <si>
-    <t>enregistrement Modèle de remerciement - Partie 4</t>
-  </si>
-  <si>
-    <t>Accusé de réception généré après lenregistrement - Partie 4</t>
-  </si>
-  <si>
-    <t>&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;img src="${CapturedLeftSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;img src="${CapturedRightSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;img src="${CapturedThumbs}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
-&lt;br/&gt;&lt;div ${Preview}&gt;&lt;p class="head"&gt;&lt;b&gt;${Consent}&lt;/b&gt;&lt;/p&gt;&lt;hr/&gt;&lt;div class="consent-block"&gt;${ConsentData}&lt;br/&gt;
-&lt;input type="radio" name="consent" id="consent-yes" ${SelectedYes}&gt;&lt;label for="consent-yes"&gt;${Yes}&lt;/label&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;
-&lt;input type="radio" name="consent" id="consent-no" ${SelectedNo}&gt;&lt;label for="consent-no"&gt;${No}&lt;/label&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr/&gt;
-&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td ${ROImage}&gt;&lt;img src="${ROImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RONamePrimLabel} / ${RONameSecLabel}&lt;/p&gt;&lt;br/&gt;${ROName}&lt;br/&gt;${RONameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegCenterPrimLabel} / ${RegCenterSecLabel}&lt;/p&gt;&lt;br/&gt;${RegCenter}&lt;br/&gt;${RegCenterSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
-&lt;hr/&gt;&lt;br/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${AckReceipt}&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim Ad minim veniam, quis nostrud exercitation. Ullamco laboris nisi ut aliquip exea commodo consequat. Duis aute irure dolor in Reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur.Cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat.Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim Ad minim veniam, quis nostrud exercitation. Ullamco laboris nisi ut aliquip exea commodo consequat. Duis aute irure dolor in Reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur.Cupidatat non proident, sunt in culpa qui offici.&lt;/span&gt;&lt;/li&gt;&lt;br/&gt;&lt;li&gt;&lt;span&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
+    <t>ida-auth-otp-sms-template</t>
+  </si>
+  <si>
+    <t>ida-auth-otp-email-subject-template</t>
+  </si>
+  <si>
+    <t>ida-auth-otp-email-content-template</t>
+  </si>
+  <si>
+    <t>Consent</t>
+  </si>
+  <si>
+    <t>موافقة</t>
+  </si>
+  <si>
+    <t>Consentement</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>To provide consent for storage and utilization of personal information as given</t>
+  </si>
+  <si>
+    <t>لتقديم موافقة لتخزين واستخدام المعلومات الشخصية على النحو الوارد</t>
+  </si>
+  <si>
+    <t>Donner son ement pour le stockage et l'utilisation des informations personnelles telles qu'elles sont données</t>
+  </si>
+  <si>
+    <t>auth otp service</t>
+  </si>
+  <si>
+    <t>auth otp service for sending otp</t>
+  </si>
+  <si>
+    <t>يرجى الاطلاع على otp $otp</t>
+  </si>
+  <si>
+    <t>auth-otp-sms-template</t>
+  </si>
+  <si>
+    <t>Sil vous plaît trouver le otp $otp</t>
+  </si>
+  <si>
+    <t>Please find the otp $otp</t>
+  </si>
+  <si>
+    <t>Pre Registration</t>
+  </si>
+  <si>
+    <t>auth otp email service subject</t>
+  </si>
+  <si>
+    <t>رسالة otp</t>
+  </si>
+  <si>
+    <t>auth-otp-email-subject-template</t>
+  </si>
+  <si>
+    <t>Otp message</t>
+  </si>
+  <si>
+    <t>auth-otp-email-content-template</t>
+  </si>
+  <si>
+    <t>Message Otp</t>
+  </si>
+  <si>
+    <t>Cher $name,OTP pour UIN $uin est $otp et est valide pour $validTime minutes. (Généré le $date à $time Hrs)</t>
+  </si>
+  <si>
+    <t>عزيزي $name ،\nOTP لـ UIN $uin هو $otp وهو صالح لمدة $validTime دقيقة. (التي تم إنشاؤها على $date في $time ساعات)</t>
+  </si>
+  <si>
+    <t>Dear $name\nOTP for UIN  $uin is $otp and is valid for $validTime minutes. (Generated on $date at $time Hrs)</t>
+  </si>
+  <si>
+    <t>OTP for UIN  $uin is $otp and is valid for $validTime minutes. (Generated on $date at $time Hrs)</t>
+  </si>
+  <si>
+    <t>_x000D_
+العزيز ${ResidentName},_x000D_
+شكرًا لك على التسجيل في نظام الهوية الرقمية. معرف التسجيل الخاص بك هو "${RID}". التفاصيل الديموغرافية هي كما يلي:_x000D_
+${Date}: تاريخ.1_x000D_
+${FullName}: الاسم الكامل.2_x000D_
+${DOB}: تاريخ الولادة.3_x000D_
+${Gender}: جنس.4_x000D_
+${AddressLine1}: 1 خط عنوان.5_x000D_
+${AddressLine2}: 2 خط عنوان.6_x000D_
+${AddressLine3}: 3 خط عنوان.7_x000D_
+${Region}: منطقة.8_x000D_
+${City}: مدينة.9_x000D_
+${Province}: المحافظة.10_x000D_
+${PostalCode}: الرمز البريدي.11_x000D_
+${Mobile}: رقم الهاتف المحمول.12_x000D_
+${Email}: البريد الإلكتروني.13</t>
+  </si>
+  <si>
+    <t>Dear ${ResidentName},_x000D_
+Thank you for registering with Digital Identity platform . Your registration id is "${RID}". The demographic details are as follows:_x000D_
+1.Date:${Date}_x000D_
+2.Full Name:${FullName}_x000D_
+3.Date of Birth:${DOB}_x000D_
+4.Gender:${Gender}_x000D_
+5.Address Line 1:${AddressLine1}_x000D_
+6.Address Line 2:${AddressLine2}_x000D_
+7.Address Line 3:${AddressLine3}_x000D_
+8.Region:${Region}_x000D_
+9.City:${City}_x000D_
+10.Province:${Province}_x000D_
+11.Postal Code:${PostalCode}_x000D_
+12.Mobile Number:${Mobile}_x000D_
+13.Email:${Email}</t>
+  </si>
+  <si>
+    <t>cher ${ResidentName},_x000D_
+Merci de vous ˆtre inscrit … la plateforme d'identit‚ num‚rique. Votre identifiant d'inscription est "${RID}". Les d‚tails d‚mographiques sont les suivants:_x000D_
+1.Rendez-vous amoureux:${Date}_x000D_
+2.Nom complet:${FullName}_x000D_
+3.Date de naissance:${DOB}_x000D_
+4.Le sexe:${Gender}_x000D_
+5.Adresse Ligne 1:${AddressLine1}_x000D_
+6.Adresse Ligne 2:${AddressLine2}_x000D_
+7.Adresse ligne 3:${AddressLine3}_x000D_
+8.R‚gion:${Region}_x000D_
+9.Ville:${City}_x000D_
+10.Province:${Province}_x000D_
+11.code postal:${PostalCode}_x000D_
+12.Num‚ro de portable:${Mobile}_x000D_
+13.Email:${Email}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2216,13 +2271,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="21.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="55.453125" style="1" bestFit="1" customWidth="1"/>
@@ -2230,11 +2285,13 @@
     <col min="6" max="6" width="36" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.453125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="32.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="8.7265625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2275,7 +2332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1101</v>
       </c>
@@ -2313,7 +2370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1102</v>
       </c>
@@ -2351,7 +2408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>1103</v>
       </c>
@@ -2389,33 +2446,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="58">
       <c r="A5" s="1">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
+      <c r="F5" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="G5" s="1">
         <v>10004</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K5" s="1" t="b">
         <v>1</v>
@@ -2427,33 +2484,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>297</v>
       </c>
       <c r="G6" s="1">
         <v>10004</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1" t="b">
         <v>1</v>
@@ -2465,33 +2522,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>298</v>
       </c>
       <c r="G7" s="1">
         <v>10004</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K7" s="1" t="b">
         <v>1</v>
@@ -2503,33 +2560,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>1101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>305</v>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G8" s="1">
         <v>10004</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K8" s="1" t="b">
         <v>1</v>
@@ -2541,33 +2598,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>1102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1">
         <v>10004</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K9" s="1" t="b">
         <v>1</v>
@@ -2579,33 +2636,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>1103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>307</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1">
         <v>10004</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K10" s="1" t="b">
         <v>1</v>
@@ -2617,33 +2674,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>308</v>
+      <c r="F11" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G11" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="K11" s="1" t="b">
         <v>1</v>
@@ -2655,33 +2712,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="G12" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="K12" s="1" t="b">
         <v>1</v>
@@ -2693,33 +2750,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="G13" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="K13" s="1" t="b">
         <v>1</v>
@@ -2731,33 +2788,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>1101</v>
+        <v>1110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G14" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K14" s="1" t="b">
         <v>1</v>
@@ -2769,33 +2826,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G15" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K15" s="1" t="b">
         <v>1</v>
@@ -2807,33 +2864,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G16" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K16" s="1" t="b">
         <v>1</v>
@@ -2845,33 +2902,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>1104</v>
+        <v>1113</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10003</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="1">
-        <v>10004</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K17" s="1" t="b">
         <v>1</v>
@@ -2883,71 +2940,71 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>1105</v>
+        <v>1114</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10003</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>1107</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10003</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="1">
-        <v>10004</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>1106</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="1">
-        <v>10004</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K19" s="1" t="b">
         <v>1</v>
@@ -2959,33 +3016,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1">
         <v>10003</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K20" s="1" t="b">
         <v>1</v>
@@ -2997,33 +3054,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="G21" s="1">
         <v>10003</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K21" s="1" t="b">
         <v>1</v>
@@ -3035,33 +3092,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>256</v>
+        <v>83</v>
       </c>
       <c r="G22" s="1">
         <v>10003</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K22" s="1" t="b">
         <v>1</v>
@@ -3073,33 +3130,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G23" s="1">
         <v>10003</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K23" s="1" t="b">
         <v>1</v>
@@ -3111,33 +3168,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G24" s="1">
         <v>10003</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K24" s="1" t="b">
         <v>1</v>
@@ -3149,33 +3206,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G25" s="1">
         <v>10003</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K25" s="1" t="b">
         <v>1</v>
@@ -3187,33 +3244,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G26" s="1">
         <v>10003</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K26" s="1" t="b">
         <v>1</v>
@@ -3225,33 +3282,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G27" s="1">
         <v>10003</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K27" s="1" t="b">
         <v>1</v>
@@ -3263,33 +3320,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G28" s="1">
         <v>10003</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K28" s="1" t="b">
         <v>1</v>
@@ -3301,33 +3358,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G29" s="1">
         <v>10003</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K29" s="1" t="b">
         <v>1</v>
@@ -3339,33 +3396,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G30" s="1">
         <v>10003</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K30" s="1" t="b">
         <v>1</v>
@@ -3377,33 +3434,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G31" s="1">
         <v>10003</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K31" s="1" t="b">
         <v>1</v>
@@ -3415,33 +3472,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G32" s="1">
         <v>10003</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K32" s="1" t="b">
         <v>1</v>
@@ -3453,33 +3510,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G33" s="1">
         <v>10003</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K33" s="1" t="b">
         <v>1</v>
@@ -3491,33 +3548,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G34" s="1">
         <v>10003</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K34" s="1" t="b">
         <v>1</v>
@@ -3529,33 +3586,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G35" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="K35" s="1" t="b">
         <v>1</v>
@@ -3567,33 +3624,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>1107</v>
+        <v>1116</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G36" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K36" s="1" t="b">
         <v>1</v>
@@ -3605,33 +3662,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>1108</v>
+        <v>1117</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="G37" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K37" s="1" t="b">
         <v>1</v>
@@ -3643,33 +3700,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>1109</v>
+        <v>1118</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G38" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K38" s="1" t="b">
         <v>1</v>
@@ -3681,33 +3738,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>1110</v>
+        <v>1119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G39" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K39" s="1" t="b">
         <v>1</v>
@@ -3719,33 +3776,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>1111</v>
+        <v>1120</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G40" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K40" s="1" t="b">
         <v>1</v>
@@ -3757,33 +3814,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G41" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K41" s="1" t="b">
         <v>1</v>
@@ -3795,71 +3852,71 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>1113</v>
+        <v>1122</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="1">
+        <v>10002</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="I42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
+        <v>1123</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="1">
+        <v>10002</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G42" s="1">
-        <v>10003</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>1114</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G43" s="1">
-        <v>10003</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K43" s="1" t="b">
         <v>1</v>
@@ -3871,33 +3928,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>1115</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G44" s="1">
         <v>10002</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K44" s="1" t="b">
         <v>1</v>
@@ -3909,33 +3966,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>1116</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="G45" s="1">
         <v>10002</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K45" s="1" t="b">
         <v>1</v>
@@ -3947,33 +4004,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>1117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G46" s="1">
         <v>10002</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K46" s="1" t="b">
         <v>1</v>
@@ -3985,33 +4042,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>1118</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G47" s="1">
         <v>10002</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K47" s="1" t="b">
         <v>1</v>
@@ -4023,33 +4080,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>1119</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G48" s="1">
         <v>10002</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K48" s="1" t="b">
         <v>1</v>
@@ -4061,33 +4118,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>1120</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G49" s="1">
         <v>10002</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K49" s="1" t="b">
         <v>1</v>
@@ -4099,33 +4156,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>1121</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G50" s="1">
         <v>10002</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K50" s="1" t="b">
         <v>1</v>
@@ -4137,33 +4194,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>1122</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G51" s="1">
         <v>10002</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K51" s="1" t="b">
         <v>1</v>
@@ -4175,33 +4232,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>1123</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="G52" s="1">
         <v>10002</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K52" s="1" t="b">
         <v>1</v>
@@ -4213,33 +4270,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>1115</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G53" s="1">
         <v>10002</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K53" s="1" t="b">
         <v>1</v>
@@ -4251,33 +4308,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>1116</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G54" s="1">
         <v>10002</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K54" s="1" t="b">
         <v>1</v>
@@ -4289,33 +4346,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>1117</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G55" s="1">
         <v>10002</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K55" s="1" t="b">
         <v>1</v>
@@ -4327,33 +4384,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>1118</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="G56" s="1">
         <v>10002</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K56" s="1" t="b">
         <v>1</v>
@@ -4365,33 +4422,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>1119</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G57" s="1">
         <v>10002</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K57" s="1" t="b">
         <v>1</v>
@@ -4403,33 +4460,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>1120</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="G58" s="1">
         <v>10002</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K58" s="1" t="b">
         <v>1</v>
@@ -4441,33 +4498,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>1121</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G59" s="1">
         <v>10002</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K59" s="1" t="b">
         <v>1</v>
@@ -4479,33 +4536,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>1122</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G60" s="1">
         <v>10002</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K60" s="1" t="b">
         <v>1</v>
@@ -4517,33 +4574,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>1123</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G61" s="1">
         <v>10002</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K61" s="1" t="b">
         <v>1</v>
@@ -4555,33 +4612,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>1115</v>
+        <v>1124</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G62" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K62" s="1" t="b">
         <v>1</v>
@@ -4593,33 +4650,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>1116</v>
+        <v>1125</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G63" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K63" s="1" t="b">
         <v>1</v>
@@ -4631,33 +4688,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>1117</v>
+        <v>1126</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G64" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K64" s="1" t="b">
         <v>1</v>
@@ -4669,33 +4726,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>1118</v>
+        <v>1127</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G65" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K65" s="1" t="b">
         <v>1</v>
@@ -4707,33 +4764,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G66" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K66" s="1" t="b">
         <v>1</v>
@@ -4745,33 +4802,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G67" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K67" s="1" t="b">
         <v>1</v>
@@ -4783,33 +4840,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G68" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K68" s="1" t="b">
         <v>1</v>
@@ -4821,33 +4878,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G69" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K69" s="1" t="b">
         <v>1</v>
@@ -4859,33 +4916,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G70" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K70" s="1" t="b">
         <v>1</v>
@@ -4897,33 +4954,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G71" s="1">
         <v>10001</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K71" s="1" t="b">
         <v>1</v>
@@ -4935,33 +4992,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="G72" s="1">
         <v>10001</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K72" s="1" t="b">
         <v>1</v>
@@ -4973,33 +5030,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="G73" s="1">
         <v>10001</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K73" s="1" t="b">
         <v>1</v>
@@ -5011,33 +5068,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="G74" s="1">
         <v>10001</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K74" s="1" t="b">
         <v>1</v>
@@ -5049,33 +5106,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G75" s="1">
         <v>10001</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K75" s="1" t="b">
         <v>1</v>
@@ -5087,33 +5144,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="G76" s="1">
         <v>10001</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K76" s="1" t="b">
         <v>1</v>
@@ -5125,33 +5182,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G77" s="1">
         <v>10001</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K77" s="1" t="b">
         <v>1</v>
@@ -5163,33 +5220,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G78" s="1">
         <v>10001</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K78" s="1" t="b">
         <v>1</v>
@@ -5201,33 +5258,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="G79" s="1">
         <v>10001</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K79" s="1" t="b">
         <v>1</v>
@@ -5239,33 +5296,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="G80" s="1">
         <v>10001</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="K80" s="1" t="b">
         <v>1</v>
@@ -5277,33 +5334,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="G81" s="1">
         <v>10001</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K81" s="1" t="b">
         <v>1</v>
@@ -5315,33 +5372,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G82" s="1">
         <v>10001</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K82" s="1" t="b">
         <v>1</v>
@@ -5353,33 +5410,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
-        <v>1124</v>
+        <v>1131</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="G83" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K83" s="1" t="b">
         <v>1</v>
@@ -5391,33 +5448,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="G84" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K84" s="1" t="b">
         <v>1</v>
@@ -5429,33 +5486,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="G85" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K85" s="1" t="b">
         <v>1</v>
@@ -5467,33 +5524,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="G86" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K86" s="1" t="b">
         <v>1</v>
@@ -5505,33 +5562,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="G87" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K87" s="1" t="b">
         <v>1</v>
@@ -5543,33 +5600,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="G88" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K88" s="1" t="b">
         <v>1</v>
@@ -5581,30 +5638,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="G89" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>18</v>
@@ -5619,33 +5676,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="G90" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K90" s="1" t="b">
         <v>1</v>
@@ -5657,33 +5714,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G91" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K91" s="1" t="b">
         <v>1</v>
@@ -5695,30 +5752,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G92" s="1">
         <v>10003</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>18</v>
@@ -5733,33 +5790,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="G93" s="1">
         <v>10003</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K93" s="1" t="b">
         <v>1</v>
@@ -5771,33 +5828,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="G94" s="1">
         <v>10003</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K94" s="1" t="b">
         <v>1</v>
@@ -5809,30 +5866,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G95" s="1">
         <v>10003</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>18</v>
@@ -5847,33 +5904,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="G96" s="1">
         <v>10003</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K96" s="1" t="b">
         <v>1</v>
@@ -5885,33 +5942,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13">
       <c r="A97" s="1">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="G97" s="1">
         <v>10003</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K97" s="1" t="b">
         <v>1</v>
@@ -5923,30 +5980,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13">
       <c r="A98" s="1">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E98" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="F98" s="1" t="s">
-        <v>237</v>
+        <v>338</v>
       </c>
       <c r="G98" s="1">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>18</v>
@@ -5961,33 +6021,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13">
       <c r="A99" s="1">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E99" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="F99" s="1" t="s">
-        <v>240</v>
+        <v>339</v>
       </c>
       <c r="G99" s="1">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K99" s="1" t="b">
         <v>1</v>
@@ -5999,33 +6062,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13">
       <c r="A100" s="1">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E100" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="F100" s="1" t="s">
-        <v>241</v>
+        <v>340</v>
       </c>
       <c r="G100" s="1">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K100" s="1" t="b">
         <v>1</v>
@@ -6037,30 +6103,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13">
       <c r="A101" s="1">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E101" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="F101" s="1" t="s">
-        <v>243</v>
+        <v>338</v>
       </c>
       <c r="G101" s="1">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>18</v>
@@ -6075,33 +6144,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13">
       <c r="A102" s="1">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E102" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="F102" s="1" t="s">
-        <v>246</v>
+        <v>339</v>
       </c>
       <c r="G102" s="1">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K102" s="1" t="b">
         <v>1</v>
@@ -6113,33 +6185,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13">
       <c r="A103" s="1">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E103" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="F103" s="1" t="s">
-        <v>247</v>
+        <v>340</v>
       </c>
       <c r="G103" s="1">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K103" s="1" t="b">
         <v>1</v>
@@ -6151,30 +6226,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13">
       <c r="A104" s="1">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E104" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="F104" s="1" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="G104" s="1">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>18</v>
@@ -6189,33 +6267,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13">
       <c r="A105" s="1">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>252</v>
+      <c r="E105" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="G105" s="1">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K105" s="1" t="b">
         <v>1</v>
@@ -6227,33 +6308,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13">
       <c r="A106" s="1">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>103</v>
+        <v>280</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="F106" s="3" t="s">
+        <v>309</v>
+      </c>
       <c r="G106" s="1">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K106" s="1" t="b">
         <v>1</v>
@@ -6265,33 +6349,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13">
       <c r="A107" s="1">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="G107" s="1">
         <v>10005</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>18</v>
@@ -6306,36 +6390,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13">
       <c r="A108" s="1">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="G108" s="1">
         <v>10005</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K108" s="1" t="b">
         <v>1</v>
@@ -6347,36 +6431,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13">
       <c r="A109" s="1">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="G109" s="1">
         <v>10005</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K109" s="1" t="b">
         <v>1</v>
@@ -6388,33 +6472,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13">
       <c r="A110" s="1">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="G110" s="1">
         <v>10005</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>18</v>
@@ -6429,36 +6513,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13">
       <c r="A111" s="1">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="G111" s="1">
         <v>10005</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K111" s="1" t="b">
         <v>1</v>
@@ -6470,36 +6554,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13">
       <c r="A112" s="1">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="G112" s="1">
         <v>10005</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K112" s="1" t="b">
         <v>1</v>
@@ -6511,36 +6595,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>1138</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>275</v>
+    <row r="113" spans="1:13">
+      <c r="A113" t="s">
+        <v>286</v>
+      </c>
+      <c r="B113" t="s">
+        <v>287</v>
+      </c>
+      <c r="C113" t="s">
+        <v>288</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G113" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>276</v>
+        <v>289</v>
+      </c>
+      <c r="F113" t="s">
+        <v>290</v>
+      </c>
+      <c r="G113">
+        <v>10001</v>
+      </c>
+      <c r="H113" t="s">
+        <v>291</v>
+      </c>
+      <c r="I113" t="s">
+        <v>183</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="K113" s="1" t="b">
         <v>1</v>
@@ -6552,36 +6636,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>1138</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>284</v>
+    <row r="114" spans="1:13">
+      <c r="A114" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B114" t="s">
+        <v>287</v>
+      </c>
+      <c r="C114" t="s">
+        <v>288</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G114" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>276</v>
+        <v>289</v>
+      </c>
+      <c r="F114" t="s">
+        <v>290</v>
+      </c>
+      <c r="G114">
+        <v>10002</v>
+      </c>
+      <c r="H114" t="s">
+        <v>291</v>
+      </c>
+      <c r="I114" t="s">
+        <v>183</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>39</v>
+        <v>292</v>
       </c>
       <c r="K114" s="1" t="b">
         <v>1</v>
@@ -6593,36 +6677,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>1138</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="115" spans="1:13">
+      <c r="A115" t="s">
+        <v>294</v>
+      </c>
+      <c r="B115" t="s">
+        <v>287</v>
+      </c>
+      <c r="C115" t="s">
+        <v>288</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="F115" t="s">
         <v>290</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G115" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>276</v>
+      <c r="G115">
+        <v>10003</v>
+      </c>
+      <c r="H115" t="s">
+        <v>291</v>
+      </c>
+      <c r="I115" t="s">
+        <v>183</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>48</v>
+        <v>292</v>
       </c>
       <c r="K115" s="1" t="b">
         <v>1</v>
@@ -6634,36 +6718,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>1139</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>280</v>
+    <row r="116" spans="1:13">
+      <c r="A116" t="s">
+        <v>295</v>
+      </c>
+      <c r="B116" t="s">
+        <v>287</v>
+      </c>
+      <c r="C116" t="s">
+        <v>288</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G116" s="1">
-        <v>10005</v>
+        <v>289</v>
+      </c>
+      <c r="F116" t="s">
+        <v>290</v>
+      </c>
+      <c r="G116">
+        <v>10004</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>277</v>
+        <v>16</v>
+      </c>
+      <c r="I116" t="s">
+        <v>183</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="K116" s="1" t="b">
         <v>1</v>
@@ -6675,36 +6759,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13">
       <c r="A117" s="1">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G117" s="1">
         <v>10005</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>39</v>
+        <v>292</v>
       </c>
       <c r="K117" s="1" t="b">
         <v>1</v>
@@ -6716,36 +6800,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13">
       <c r="A118" s="1">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G118" s="1">
         <v>10005</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K118" s="1" t="b">
         <v>1</v>
@@ -6757,119 +6841,119 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13">
       <c r="A119" s="1">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G119" s="1">
         <v>10005</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="J119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K119" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120">
+        <v>1142</v>
+      </c>
+      <c r="B120" t="s">
+        <v>321</v>
+      </c>
+      <c r="C120" t="s">
+        <v>322</v>
+      </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s">
+        <v>253</v>
+      </c>
+      <c r="F120" t="s">
+        <v>323</v>
+      </c>
+      <c r="G120">
+        <v>10001</v>
+      </c>
+      <c r="H120" t="s">
+        <v>327</v>
+      </c>
+      <c r="I120" t="s">
+        <v>324</v>
+      </c>
+      <c r="J120" t="s">
+        <v>34</v>
+      </c>
+      <c r="K120" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121">
+        <v>1142</v>
+      </c>
+      <c r="B121" t="s">
+        <v>321</v>
+      </c>
+      <c r="C121" t="s">
+        <v>322</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
+        <v>253</v>
+      </c>
+      <c r="F121" t="s">
+        <v>326</v>
+      </c>
+      <c r="G121">
+        <v>10001</v>
+      </c>
+      <c r="H121" t="s">
+        <v>327</v>
+      </c>
+      <c r="I121" t="s">
+        <v>324</v>
+      </c>
+      <c r="J121" t="s">
         <v>18</v>
       </c>
-      <c r="K119" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>1140</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G120" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K120" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
-        <v>1140</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G121" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K121" s="1" t="b">
         <v>1</v>
       </c>
@@ -6880,295 +6964,1514 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>295</v>
+    <row r="122" spans="1:13">
+      <c r="A122">
+        <v>1142</v>
       </c>
       <c r="B122" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="C122" t="s">
-        <v>297</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>298</v>
+        <v>322</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>253</v>
       </c>
       <c r="F122" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="G122">
         <v>10001</v>
       </c>
       <c r="H122" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="I122" t="s">
+        <v>324</v>
+      </c>
+      <c r="J122" t="s">
+        <v>43</v>
+      </c>
+      <c r="K122" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123">
+        <v>1143</v>
+      </c>
+      <c r="B123" t="s">
+        <v>328</v>
+      </c>
+      <c r="C123" t="s">
+        <v>328</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
+        <v>253</v>
+      </c>
+      <c r="F123" t="s">
+        <v>329</v>
+      </c>
+      <c r="G123">
+        <v>10001</v>
+      </c>
+      <c r="H123" t="s">
+        <v>327</v>
+      </c>
+      <c r="I123" t="s">
+        <v>330</v>
+      </c>
+      <c r="J123" t="s">
+        <v>34</v>
+      </c>
+      <c r="K123" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124">
+        <v>1143</v>
+      </c>
+      <c r="B124" t="s">
+        <v>328</v>
+      </c>
+      <c r="C124" t="s">
+        <v>328</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>253</v>
+      </c>
+      <c r="F124" t="s">
+        <v>331</v>
+      </c>
+      <c r="G124">
+        <v>10001</v>
+      </c>
+      <c r="H124" t="s">
+        <v>327</v>
+      </c>
+      <c r="I124" t="s">
+        <v>330</v>
+      </c>
+      <c r="J124" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125">
+        <v>1143</v>
+      </c>
+      <c r="B125" t="s">
+        <v>328</v>
+      </c>
+      <c r="C125" t="s">
+        <v>328</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s">
+        <v>253</v>
+      </c>
+      <c r="F125" t="s">
+        <v>331</v>
+      </c>
+      <c r="G125">
+        <v>10001</v>
+      </c>
+      <c r="H125" t="s">
+        <v>327</v>
+      </c>
+      <c r="I125" t="s">
+        <v>330</v>
+      </c>
+      <c r="J125" t="s">
+        <v>43</v>
+      </c>
+      <c r="K125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126">
+        <v>1144</v>
+      </c>
+      <c r="B126" t="s">
+        <v>328</v>
+      </c>
+      <c r="C126" t="s">
+        <v>328</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>253</v>
+      </c>
+      <c r="F126" t="s">
+        <v>323</v>
+      </c>
+      <c r="G126">
+        <v>10001</v>
+      </c>
+      <c r="H126" t="s">
+        <v>327</v>
+      </c>
+      <c r="I126" t="s">
+        <v>332</v>
+      </c>
+      <c r="J126" t="s">
+        <v>34</v>
+      </c>
+      <c r="K126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127">
+        <v>1144</v>
+      </c>
+      <c r="B127" t="s">
+        <v>328</v>
+      </c>
+      <c r="C127" t="s">
+        <v>328</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
+        <v>253</v>
+      </c>
+      <c r="F127" t="s">
+        <v>326</v>
+      </c>
+      <c r="G127">
+        <v>10001</v>
+      </c>
+      <c r="H127" t="s">
+        <v>327</v>
+      </c>
+      <c r="I127" t="s">
+        <v>332</v>
+      </c>
+      <c r="J127" t="s">
+        <v>18</v>
+      </c>
+      <c r="K127" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128">
+        <v>1144</v>
+      </c>
+      <c r="B128" t="s">
+        <v>328</v>
+      </c>
+      <c r="C128" t="s">
+        <v>328</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>253</v>
+      </c>
+      <c r="F128" t="s">
+        <v>326</v>
+      </c>
+      <c r="G128">
+        <v>10001</v>
+      </c>
+      <c r="H128" t="s">
+        <v>327</v>
+      </c>
+      <c r="I128" t="s">
+        <v>332</v>
+      </c>
+      <c r="J128" t="s">
+        <v>43</v>
+      </c>
+      <c r="K128" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129">
+        <v>1145</v>
+      </c>
+      <c r="B129" t="s">
+        <v>321</v>
+      </c>
+      <c r="C129" t="s">
+        <v>322</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" t="s">
+        <v>253</v>
+      </c>
+      <c r="F129" t="s">
+        <v>323</v>
+      </c>
+      <c r="G129">
+        <v>10002</v>
+      </c>
+      <c r="H129" t="s">
+        <v>111</v>
+      </c>
+      <c r="I129" t="s">
+        <v>324</v>
+      </c>
+      <c r="J129" t="s">
+        <v>34</v>
+      </c>
+      <c r="K129" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130">
+        <v>1145</v>
+      </c>
+      <c r="B130" t="s">
+        <v>321</v>
+      </c>
+      <c r="C130" t="s">
+        <v>322</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>253</v>
+      </c>
+      <c r="F130" t="s">
+        <v>325</v>
+      </c>
+      <c r="G130">
+        <v>10002</v>
+      </c>
+      <c r="H130" t="s">
+        <v>111</v>
+      </c>
+      <c r="I130" t="s">
+        <v>324</v>
+      </c>
+      <c r="J130" t="s">
+        <v>43</v>
+      </c>
+      <c r="K130" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131">
+        <v>1145</v>
+      </c>
+      <c r="B131" t="s">
+        <v>321</v>
+      </c>
+      <c r="C131" t="s">
+        <v>322</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s">
+        <v>253</v>
+      </c>
+      <c r="F131" t="s">
+        <v>326</v>
+      </c>
+      <c r="G131">
+        <v>10002</v>
+      </c>
+      <c r="H131" t="s">
+        <v>111</v>
+      </c>
+      <c r="I131" t="s">
+        <v>324</v>
+      </c>
+      <c r="J131" t="s">
+        <v>18</v>
+      </c>
+      <c r="K131" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132">
+        <v>1146</v>
+      </c>
+      <c r="B132" t="s">
+        <v>328</v>
+      </c>
+      <c r="C132" t="s">
+        <v>328</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
+        <v>253</v>
+      </c>
+      <c r="F132" t="s">
+        <v>329</v>
+      </c>
+      <c r="G132">
+        <v>10002</v>
+      </c>
+      <c r="H132" t="s">
+        <v>111</v>
+      </c>
+      <c r="I132" t="s">
+        <v>330</v>
+      </c>
+      <c r="J132" t="s">
+        <v>34</v>
+      </c>
+      <c r="K132" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133">
+        <v>1146</v>
+      </c>
+      <c r="B133" t="s">
+        <v>328</v>
+      </c>
+      <c r="C133" t="s">
+        <v>328</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>253</v>
+      </c>
+      <c r="F133" t="s">
+        <v>333</v>
+      </c>
+      <c r="G133">
+        <v>10002</v>
+      </c>
+      <c r="H133" t="s">
+        <v>111</v>
+      </c>
+      <c r="I133" t="s">
+        <v>330</v>
+      </c>
+      <c r="J133" t="s">
+        <v>43</v>
+      </c>
+      <c r="K133" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134">
+        <v>1146</v>
+      </c>
+      <c r="B134" t="s">
+        <v>328</v>
+      </c>
+      <c r="C134" t="s">
+        <v>328</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>253</v>
+      </c>
+      <c r="F134" t="s">
+        <v>331</v>
+      </c>
+      <c r="G134">
+        <v>10002</v>
+      </c>
+      <c r="H134" t="s">
+        <v>111</v>
+      </c>
+      <c r="I134" t="s">
+        <v>330</v>
+      </c>
+      <c r="J134" t="s">
+        <v>18</v>
+      </c>
+      <c r="K134" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135">
+        <v>1147</v>
+      </c>
+      <c r="B135" t="s">
+        <v>328</v>
+      </c>
+      <c r="C135" t="s">
+        <v>328</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s">
+        <v>253</v>
+      </c>
+      <c r="F135" t="s">
+        <v>323</v>
+      </c>
+      <c r="G135">
+        <v>10002</v>
+      </c>
+      <c r="H135" t="s">
+        <v>111</v>
+      </c>
+      <c r="I135" t="s">
+        <v>332</v>
+      </c>
+      <c r="J135" t="s">
+        <v>34</v>
+      </c>
+      <c r="K135" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136">
+        <v>1147</v>
+      </c>
+      <c r="B136" t="s">
+        <v>328</v>
+      </c>
+      <c r="C136" t="s">
+        <v>328</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" t="s">
+        <v>253</v>
+      </c>
+      <c r="F136" t="s">
+        <v>326</v>
+      </c>
+      <c r="G136">
+        <v>10002</v>
+      </c>
+      <c r="H136" t="s">
+        <v>111</v>
+      </c>
+      <c r="I136" t="s">
+        <v>332</v>
+      </c>
+      <c r="J136" t="s">
+        <v>18</v>
+      </c>
+      <c r="K136" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137">
+        <v>1147</v>
+      </c>
+      <c r="B137" t="s">
+        <v>328</v>
+      </c>
+      <c r="C137" t="s">
+        <v>328</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" t="s">
+        <v>253</v>
+      </c>
+      <c r="F137" t="s">
+        <v>325</v>
+      </c>
+      <c r="G137">
+        <v>10002</v>
+      </c>
+      <c r="H137" t="s">
+        <v>111</v>
+      </c>
+      <c r="I137" t="s">
+        <v>332</v>
+      </c>
+      <c r="J137" t="s">
+        <v>43</v>
+      </c>
+      <c r="K137" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138">
+        <v>1148</v>
+      </c>
+      <c r="B138" t="s">
+        <v>321</v>
+      </c>
+      <c r="C138" t="s">
+        <v>322</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>253</v>
+      </c>
+      <c r="F138" t="s">
+        <v>323</v>
+      </c>
+      <c r="G138">
+        <v>10003</v>
+      </c>
+      <c r="H138" t="s">
+        <v>54</v>
+      </c>
+      <c r="I138" t="s">
+        <v>324</v>
+      </c>
+      <c r="J138" t="s">
+        <v>34</v>
+      </c>
+      <c r="K138" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139">
+        <v>1148</v>
+      </c>
+      <c r="B139" t="s">
+        <v>321</v>
+      </c>
+      <c r="C139" t="s">
+        <v>322</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
+        <v>253</v>
+      </c>
+      <c r="F139" t="s">
+        <v>325</v>
+      </c>
+      <c r="G139">
+        <v>10003</v>
+      </c>
+      <c r="H139" t="s">
+        <v>54</v>
+      </c>
+      <c r="I139" t="s">
+        <v>324</v>
+      </c>
+      <c r="J139" t="s">
+        <v>43</v>
+      </c>
+      <c r="K139" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140">
+        <v>1148</v>
+      </c>
+      <c r="B140" t="s">
+        <v>321</v>
+      </c>
+      <c r="C140" t="s">
+        <v>322</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s">
+        <v>253</v>
+      </c>
+      <c r="F140" t="s">
+        <v>326</v>
+      </c>
+      <c r="G140">
+        <v>10003</v>
+      </c>
+      <c r="H140" t="s">
+        <v>54</v>
+      </c>
+      <c r="I140" t="s">
+        <v>324</v>
+      </c>
+      <c r="J140" t="s">
+        <v>18</v>
+      </c>
+      <c r="K140" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141">
+        <v>1149</v>
+      </c>
+      <c r="B141" t="s">
+        <v>328</v>
+      </c>
+      <c r="C141" t="s">
+        <v>328</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>253</v>
+      </c>
+      <c r="F141" t="s">
+        <v>329</v>
+      </c>
+      <c r="G141">
+        <v>10003</v>
+      </c>
+      <c r="H141" t="s">
+        <v>54</v>
+      </c>
+      <c r="I141" t="s">
+        <v>330</v>
+      </c>
+      <c r="J141" t="s">
+        <v>34</v>
+      </c>
+      <c r="K141" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142">
+        <v>1149</v>
+      </c>
+      <c r="B142" t="s">
+        <v>328</v>
+      </c>
+      <c r="C142" t="s">
+        <v>328</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
+        <v>253</v>
+      </c>
+      <c r="F142" t="s">
+        <v>333</v>
+      </c>
+      <c r="G142">
+        <v>10003</v>
+      </c>
+      <c r="H142" t="s">
+        <v>54</v>
+      </c>
+      <c r="I142" t="s">
+        <v>330</v>
+      </c>
+      <c r="J142" t="s">
+        <v>43</v>
+      </c>
+      <c r="K142" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143">
+        <v>1149</v>
+      </c>
+      <c r="B143" t="s">
+        <v>328</v>
+      </c>
+      <c r="C143" t="s">
+        <v>328</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" t="s">
+        <v>253</v>
+      </c>
+      <c r="F143" t="s">
+        <v>331</v>
+      </c>
+      <c r="G143">
+        <v>10003</v>
+      </c>
+      <c r="H143" t="s">
+        <v>54</v>
+      </c>
+      <c r="I143" t="s">
+        <v>330</v>
+      </c>
+      <c r="J143" t="s">
+        <v>18</v>
+      </c>
+      <c r="K143" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144">
+        <v>1150</v>
+      </c>
+      <c r="B144" t="s">
+        <v>328</v>
+      </c>
+      <c r="C144" t="s">
+        <v>328</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" t="s">
+        <v>253</v>
+      </c>
+      <c r="F144" t="s">
+        <v>323</v>
+      </c>
+      <c r="G144">
+        <v>10003</v>
+      </c>
+      <c r="H144" t="s">
+        <v>54</v>
+      </c>
+      <c r="I144" t="s">
+        <v>332</v>
+      </c>
+      <c r="J144" t="s">
+        <v>34</v>
+      </c>
+      <c r="K144" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145">
+        <v>1150</v>
+      </c>
+      <c r="B145" t="s">
+        <v>328</v>
+      </c>
+      <c r="C145" t="s">
+        <v>328</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
+        <v>253</v>
+      </c>
+      <c r="F145" t="s">
+        <v>326</v>
+      </c>
+      <c r="G145">
+        <v>10003</v>
+      </c>
+      <c r="H145" t="s">
+        <v>54</v>
+      </c>
+      <c r="I145" t="s">
+        <v>332</v>
+      </c>
+      <c r="J145" t="s">
+        <v>18</v>
+      </c>
+      <c r="K145" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146">
+        <v>1150</v>
+      </c>
+      <c r="B146" t="s">
+        <v>328</v>
+      </c>
+      <c r="C146" t="s">
+        <v>328</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>253</v>
+      </c>
+      <c r="F146" t="s">
+        <v>325</v>
+      </c>
+      <c r="G146">
+        <v>10003</v>
+      </c>
+      <c r="H146" t="s">
+        <v>54</v>
+      </c>
+      <c r="I146" t="s">
+        <v>332</v>
+      </c>
+      <c r="J146" t="s">
+        <v>43</v>
+      </c>
+      <c r="K146" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="1">
+        <v>1151</v>
+      </c>
+      <c r="B147" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" t="s">
+        <v>336</v>
+      </c>
+      <c r="G147">
+        <v>10004</v>
+      </c>
+      <c r="H147" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" t="s">
+        <v>313</v>
+      </c>
+      <c r="J147" t="s">
+        <v>18</v>
+      </c>
+      <c r="K147" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="1">
+        <v>1151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148" t="s">
+        <v>37</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" t="s">
+        <v>335</v>
+      </c>
+      <c r="G148">
+        <v>10004</v>
+      </c>
+      <c r="H148" t="s">
+        <v>33</v>
+      </c>
+      <c r="I148" t="s">
+        <v>313</v>
+      </c>
+      <c r="J148" t="s">
+        <v>34</v>
+      </c>
+      <c r="K148" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="1">
+        <v>1151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>48</v>
+      </c>
+      <c r="C149" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149" t="s">
+        <v>334</v>
+      </c>
+      <c r="G149">
+        <v>10004</v>
+      </c>
+      <c r="H149" t="s">
+        <v>42</v>
+      </c>
+      <c r="I149" t="s">
+        <v>313</v>
+      </c>
+      <c r="J149" t="s">
+        <v>43</v>
+      </c>
+      <c r="K149" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="1">
+        <v>1152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>28</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" t="s">
+        <v>29</v>
+      </c>
+      <c r="G150">
+        <v>10004</v>
+      </c>
+      <c r="H150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" t="s">
+        <v>312</v>
+      </c>
+      <c r="J150" t="s">
+        <v>18</v>
+      </c>
+      <c r="K150" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="1">
+        <v>1152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>38</v>
+      </c>
+      <c r="C151" t="s">
+        <v>38</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" t="s">
+        <v>299</v>
+      </c>
+      <c r="G151">
+        <v>10004</v>
+      </c>
+      <c r="H151" t="s">
+        <v>33</v>
+      </c>
+      <c r="I151" t="s">
+        <v>312</v>
+      </c>
+      <c r="J151" t="s">
+        <v>34</v>
+      </c>
+      <c r="K151" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="1">
+        <v>1152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s">
+        <v>4</v>
+      </c>
+      <c r="F152" t="s">
+        <v>50</v>
+      </c>
+      <c r="G152">
+        <v>10004</v>
+      </c>
+      <c r="H152" t="s">
+        <v>42</v>
+      </c>
+      <c r="I152" t="s">
+        <v>312</v>
+      </c>
+      <c r="J152" t="s">
+        <v>43</v>
+      </c>
+      <c r="K152" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153">
+        <v>1153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153" t="s">
+        <v>30</v>
+      </c>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" t="s">
+        <v>337</v>
+      </c>
+      <c r="G153">
+        <v>10004</v>
+      </c>
+      <c r="H153" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" t="s">
+        <v>311</v>
+      </c>
+      <c r="J153" t="s">
+        <v>18</v>
+      </c>
+      <c r="K153" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="1">
+        <v>1153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>39</v>
+      </c>
+      <c r="C154" t="s">
+        <v>39</v>
+      </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" t="s">
+        <v>32</v>
+      </c>
+      <c r="G154">
+        <v>10004</v>
+      </c>
+      <c r="H154" t="s">
+        <v>33</v>
+      </c>
+      <c r="I154" t="s">
+        <v>311</v>
+      </c>
+      <c r="J154" t="s">
+        <v>34</v>
+      </c>
+      <c r="K154" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="1">
+        <v>1153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" t="s">
+        <v>51</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" t="s">
+        <v>52</v>
+      </c>
+      <c r="G155">
+        <v>10004</v>
+      </c>
+      <c r="H155" t="s">
+        <v>42</v>
+      </c>
+      <c r="I155" t="s">
+        <v>311</v>
+      </c>
+      <c r="J155" t="s">
+        <v>43</v>
+      </c>
+      <c r="K155" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="1">
+        <v>1154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156" t="s">
+        <v>314</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G156" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K156" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="1">
+        <v>1154</v>
+      </c>
+      <c r="B157" t="s">
+        <v>315</v>
+      </c>
+      <c r="C157" t="s">
+        <v>315</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G157" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H157" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J122" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K122" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B123" t="s">
-        <v>296</v>
-      </c>
-      <c r="C123" t="s">
-        <v>297</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F123" t="s">
-        <v>299</v>
-      </c>
-      <c r="G123">
-        <v>10002</v>
-      </c>
-      <c r="H123" t="s">
-        <v>300</v>
-      </c>
-      <c r="I123" t="s">
-        <v>189</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K123" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>303</v>
-      </c>
-      <c r="B124" t="s">
-        <v>296</v>
-      </c>
-      <c r="C124" t="s">
-        <v>297</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F124" t="s">
-        <v>299</v>
-      </c>
-      <c r="G124">
-        <v>10003</v>
-      </c>
-      <c r="H124" t="s">
-        <v>300</v>
-      </c>
-      <c r="I124" t="s">
-        <v>189</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K124" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>304</v>
-      </c>
-      <c r="B125" t="s">
-        <v>296</v>
-      </c>
-      <c r="C125" t="s">
-        <v>297</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F125" t="s">
-        <v>299</v>
-      </c>
-      <c r="G125">
-        <v>10004</v>
-      </c>
-      <c r="H125" t="s">
-        <v>300</v>
-      </c>
-      <c r="I125" t="s">
-        <v>189</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K125" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
-        <v>1141</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F126" s="1" t="s">
+      <c r="I157" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K157" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="1">
+        <v>1154</v>
+      </c>
+      <c r="B158" t="s">
+        <v>316</v>
+      </c>
+      <c r="C158" t="s">
+        <v>316</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G126" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K126" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
-        <v>1141</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="G158" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I158" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G127" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K127" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
-        <v>1141</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G128" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K128" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M128" s="1" t="s">
+      <c r="J158" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K158" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M158" s="1" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M125" xr:uid="{606D01AB-69AF-42F0-9A8A-DE1226555770}"/>
+  <autoFilter ref="A1:M158" xr:uid="{606D01AB-69AF-42F0-9A8A-DE1226555770}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
